--- a/CVOE/5 Manuscript/Output/Older Healthy Output 10_14.xlsx
+++ b/CVOE/5 Manuscript/Output/Older Healthy Output 10_14.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nickm.000\Documents\GitHub\Spring-2019-Projects\CVOE\5 Manuscript\Output\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nickm\OneDrive\Documents\GitHub\Spring-2019-Projects\CVOE\5 Manuscript\Output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{486A08B7-E647-4310-85EE-57383982BB92}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="59" documentId="13_ncr:1_{486A08B7-E647-4310-85EE-57383982BB92}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{E69114FD-7CED-44EF-B5A0-80500997CAD8}"/>
   <bookViews>
-    <workbookView xWindow="10245" yWindow="30" windowWidth="10155" windowHeight="10200" xr2:uid="{E0C5538E-1FAD-433E-AC4C-D2EEA76FE06A}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="2" xr2:uid="{E0C5538E-1FAD-433E-AC4C-D2EEA76FE06A}"/>
   </bookViews>
   <sheets>
     <sheet name="Errors" sheetId="1" r:id="rId1"/>
@@ -513,19 +513,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEE5C1B3-1D15-409E-BB0E-BB269A9102CD}">
-  <dimension ref="A1:L28"/>
+  <dimension ref="A1:L40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L2" sqref="L2:L21"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="9" max="9" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -563,7 +563,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1001</v>
       </c>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1002</v>
       </c>
@@ -639,45 +639,45 @@
         <v>1.63934426229508E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1003</v>
       </c>
       <c r="B4">
-        <v>5.2083333333333398E-2</v>
+        <v>4.2105263157894798E-2</v>
       </c>
       <c r="C4">
         <v>2.0833333333333402E-2</v>
       </c>
       <c r="D4">
-        <v>3.6458333333333398E-2</v>
+        <v>3.1469298245614098E-2</v>
       </c>
       <c r="E4">
-        <v>6.8965517241379296E-2</v>
+        <v>7.0175438596491196E-2</v>
       </c>
       <c r="F4">
         <v>1.63934426229508E-2</v>
       </c>
       <c r="G4">
-        <v>1.63934426229508E-2</v>
+        <v>1.6666666666666701E-2</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>-2.0064890710382501E-2</v>
+        <v>-1.50758556226632E-2</v>
       </c>
       <c r="J4">
-        <v>-3.6458333333333398E-2</v>
+        <v>-3.1469298245614098E-2</v>
       </c>
       <c r="K4">
-        <v>5.2572074618428499E-2</v>
+        <v>5.37819959735404E-2</v>
       </c>
       <c r="L4">
-        <v>1.63934426229508E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1.6666666666666701E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1007</v>
       </c>
@@ -715,7 +715,7 @@
         <v>-3.6121144762433999E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>1008</v>
       </c>
@@ -753,7 +753,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>1009</v>
       </c>
@@ -791,7 +791,7 @@
         <v>3.2231175326479698E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>1010</v>
       </c>
@@ -799,37 +799,37 @@
         <v>1.05263157894737E-2</v>
       </c>
       <c r="C8">
-        <v>3.125E-2</v>
+        <v>3.1578947368420998E-2</v>
       </c>
       <c r="D8">
-        <v>2.08881578947369E-2</v>
+        <v>2.1052631578947399E-2</v>
       </c>
       <c r="E8">
-        <v>0.28000000000000003</v>
+        <v>0.27272727272727298</v>
       </c>
       <c r="F8">
-        <v>0.214285714285714</v>
+        <v>0.125</v>
       </c>
       <c r="G8">
-        <v>4.54545454545454E-2</v>
+        <v>4.8780487804878099E-2</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.193397556390977</v>
+        <v>0.103947368421053</v>
       </c>
       <c r="J8">
-        <v>-2.08881578947369E-2</v>
+        <v>-2.1052631578947399E-2</v>
       </c>
       <c r="K8">
-        <v>6.5714285714285697E-2</v>
+        <v>0.14772727272727301</v>
       </c>
       <c r="L8">
-        <v>4.54545454545454E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+        <v>4.8780487804878099E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>1011</v>
       </c>
@@ -843,31 +843,31 @@
         <v>2.6041666666666699E-2</v>
       </c>
       <c r="E9">
-        <v>1.6949152542372801E-2</v>
+        <v>3.3333333333333298E-2</v>
       </c>
       <c r="F9">
-        <v>0.05</v>
+        <v>2.5210084033613502E-2</v>
       </c>
       <c r="G9">
-        <v>4.91803278688525E-2</v>
+        <v>3.3333333333333298E-2</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>2.5210084033613502E-2</v>
       </c>
       <c r="I9">
-        <v>2.3958333333333401E-2</v>
+        <v>-8.3158263305321801E-4</v>
       </c>
       <c r="J9">
-        <v>-2.6041666666666699E-2</v>
+        <v>-8.3158263305321801E-4</v>
       </c>
       <c r="K9">
-        <v>-3.3050847457627201E-2</v>
+        <v>8.1232492997198608E-3</v>
       </c>
       <c r="L9">
-        <v>4.91803278688525E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+        <v>8.1232492997198608E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>1014</v>
       </c>
@@ -881,13 +881,13 @@
         <v>8.5106382978723402E-2</v>
       </c>
       <c r="E10">
-        <v>8.77192982456141E-2</v>
+        <v>8.9285714285714302E-2</v>
       </c>
       <c r="F10">
         <v>0.116666666666667</v>
       </c>
       <c r="G10">
-        <v>6.6666666666666693E-2</v>
+        <v>5.1724137931034503E-2</v>
       </c>
       <c r="H10">
         <v>5.2631578947368501E-2</v>
@@ -899,13 +899,13 @@
         <v>-3.2474804031354901E-2</v>
       </c>
       <c r="K10">
-        <v>-2.89473684210526E-2</v>
+        <v>-2.7380952380952402E-2</v>
       </c>
       <c r="L10">
-        <v>1.4035087719298201E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+        <v>-9.0744101633399897E-4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>1015</v>
       </c>
@@ -943,7 +943,7 @@
         <v>6.5573770491803199E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>1016</v>
       </c>
@@ -981,7 +981,7 @@
         <v>-7.2357263990955406E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>1017</v>
       </c>
@@ -1004,22 +1004,22 @@
         <v>4.91803278688525E-2</v>
       </c>
       <c r="H13">
-        <v>1.6949152542372801E-2</v>
+        <v>1.72413793103449E-2</v>
       </c>
       <c r="I13">
         <v>-9.6482240437158508E-3</v>
       </c>
       <c r="J13">
-        <v>-9.0925141242938507E-3</v>
+        <v>-8.8002873563218197E-3</v>
       </c>
       <c r="K13">
         <v>1.75048624617949E-2</v>
       </c>
       <c r="L13">
-        <v>3.2231175326479698E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+        <v>3.19389485585077E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>1018</v>
       </c>
@@ -1039,7 +1039,7 @@
         <v>0</v>
       </c>
       <c r="G14">
-        <v>3.3898305084745797E-2</v>
+        <v>3.4482758620689599E-2</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1054,10 +1054,10 @@
         <v>1.6949152542372801E-2</v>
       </c>
       <c r="L14">
-        <v>3.3898305084745797E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+        <v>3.4482758620689599E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>1019</v>
       </c>
@@ -1074,7 +1074,7 @@
         <v>0.13559322033898299</v>
       </c>
       <c r="F15">
-        <v>6.5573770491803199E-2</v>
+        <v>6.6666666666666693E-2</v>
       </c>
       <c r="G15">
         <v>6.5573770491803199E-2</v>
@@ -1083,19 +1083,19 @@
         <v>3.3898305084745797E-2</v>
       </c>
       <c r="I15">
-        <v>3.9532103825136597E-2</v>
+        <v>4.0625000000000001E-2</v>
       </c>
       <c r="J15">
         <v>7.8566384180791E-3</v>
       </c>
       <c r="K15">
-        <v>7.0019449847179796E-2</v>
+        <v>6.8926553672316399E-2</v>
       </c>
       <c r="L15">
         <v>3.1675465407057499E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>1020</v>
       </c>
@@ -1118,22 +1118,22 @@
         <v>0.13114754098360701</v>
       </c>
       <c r="H16">
-        <v>1.6949152542372801E-2</v>
+        <v>1.72413793103449E-2</v>
       </c>
       <c r="I16">
         <v>-3.3442982456140498E-3</v>
       </c>
       <c r="J16">
-        <v>-1.9728479036574501E-2</v>
+        <v>-1.9436252268602499E-2</v>
       </c>
       <c r="K16">
         <v>3.4463276836158199E-2</v>
       </c>
       <c r="L16">
-        <v>0.11419838844123401</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.11390616167326199</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>1022</v>
       </c>
@@ -1156,22 +1156,22 @@
         <v>1.63934426229508E-2</v>
       </c>
       <c r="H17">
-        <v>3.3898305084745797E-2</v>
+        <v>3.4482758620689599E-2</v>
       </c>
       <c r="I17">
         <v>5.2061961046684598E-2</v>
       </c>
       <c r="J17">
-        <v>1.81636559619388E-2</v>
+        <v>1.8748109497882599E-2</v>
       </c>
       <c r="K17">
         <v>-1.6072472238457099E-2</v>
       </c>
       <c r="L17">
-        <v>-1.75048624617949E-2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+        <v>-1.8089315997738799E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>1023</v>
       </c>
@@ -1209,15 +1209,15 @@
         <v>-8.4793668739402395E-4</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>1024</v>
       </c>
       <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19">
         <v>1.04166666666666E-2</v>
-      </c>
-      <c r="C19">
-        <v>0</v>
       </c>
       <c r="D19">
         <v>5.2083333333333096E-3</v>
@@ -1247,45 +1247,45 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>1025</v>
       </c>
       <c r="B20">
+        <v>1.04166666666666E-2</v>
+      </c>
+      <c r="C20">
         <v>2.0833333333333402E-2</v>
-      </c>
-      <c r="C20">
-        <v>1.04166666666666E-2</v>
       </c>
       <c r="D20">
         <v>1.5625E-2</v>
       </c>
       <c r="E20">
+        <v>6.7796610169491595E-2</v>
+      </c>
+      <c r="F20">
+        <v>1.6666666666666701E-2</v>
+      </c>
+      <c r="G20">
         <v>8.6206896551724102E-2</v>
       </c>
-      <c r="F20">
+      <c r="H20">
         <v>1.72413793103449E-2</v>
       </c>
-      <c r="G20">
-        <v>6.7796610169491595E-2</v>
-      </c>
-      <c r="H20">
-        <v>1.6666666666666701E-2</v>
-      </c>
       <c r="I20">
+        <v>1.04166666666672E-3</v>
+      </c>
+      <c r="J20">
         <v>1.6163793103448601E-3</v>
       </c>
-      <c r="J20">
-        <v>1.04166666666672E-3</v>
-      </c>
       <c r="K20">
+        <v>5.11299435028248E-2</v>
+      </c>
+      <c r="L20">
         <v>6.8965517241379198E-2</v>
       </c>
-      <c r="L20">
-        <v>5.11299435028248E-2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>1026</v>
       </c>
@@ -1323,298 +1323,716 @@
         <v>1.6091954022988499E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>3001</v>
+      </c>
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22">
+        <v>2.0833333333333402E-2</v>
+      </c>
+      <c r="D22">
+        <v>1.0416666666666701E-2</v>
+      </c>
+      <c r="E22">
+        <v>5.0847457627118599E-2</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>1.63934426229508E-2</v>
+      </c>
+      <c r="H22">
+        <v>1.75438596491229E-2</v>
+      </c>
+      <c r="I22">
+        <v>-1.0416666666666701E-2</v>
+      </c>
+      <c r="J22">
+        <v>7.1271929824561799E-3</v>
+      </c>
+      <c r="K22">
+        <v>5.0847457627118599E-2</v>
+      </c>
+      <c r="L22">
+        <v>-1.15041702617202E-3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>3002</v>
+      </c>
+      <c r="B23">
+        <v>2.0833333333333402E-2</v>
+      </c>
+      <c r="C23">
+        <v>2.0833333333333402E-2</v>
+      </c>
+      <c r="D23">
+        <v>2.0833333333333402E-2</v>
+      </c>
+      <c r="E23">
+        <v>1.6949152542372801E-2</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>1.6949152542372801E-2</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>-2.0833333333333402E-2</v>
+      </c>
+      <c r="J23">
+        <v>-2.0833333333333402E-2</v>
+      </c>
+      <c r="K23">
+        <v>1.6949152542372801E-2</v>
+      </c>
+      <c r="L23">
+        <v>1.6949152542372801E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>3003</v>
+      </c>
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="C24">
+        <v>5.2083333333333398E-2</v>
+      </c>
+      <c r="D24">
+        <v>2.6041666666666699E-2</v>
+      </c>
+      <c r="E24">
+        <v>3.4482758620689599E-2</v>
+      </c>
+      <c r="F24">
+        <v>0.05</v>
+      </c>
+      <c r="G24">
+        <v>8.3333333333333398E-2</v>
+      </c>
+      <c r="H24">
+        <v>5.1724137931034503E-2</v>
+      </c>
+      <c r="I24">
+        <v>2.3958333333333401E-2</v>
+      </c>
+      <c r="J24">
+        <v>2.56824712643678E-2</v>
+      </c>
+      <c r="K24">
+        <v>-1.55172413793104E-2</v>
+      </c>
+      <c r="L24">
+        <v>3.1609195402298902E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>3004</v>
+      </c>
+      <c r="B25">
+        <v>5.2083333333333398E-2</v>
+      </c>
+      <c r="C25">
+        <v>5.2083333333333398E-2</v>
+      </c>
+      <c r="D25">
+        <v>5.2083333333333398E-2</v>
+      </c>
+      <c r="E25">
+        <v>3.2786885245901697E-2</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>8.4745762711864403E-2</v>
+      </c>
+      <c r="H25">
+        <v>1.63934426229508E-2</v>
+      </c>
+      <c r="I25">
+        <v>-5.2083333333333398E-2</v>
+      </c>
+      <c r="J25">
+        <v>-3.5689890710382498E-2</v>
+      </c>
+      <c r="K25">
+        <v>3.2786885245901697E-2</v>
+      </c>
+      <c r="L25">
+        <v>6.8352320088913607E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>3006</v>
+      </c>
+      <c r="B26">
+        <v>3.125E-2</v>
+      </c>
+      <c r="C26">
+        <v>3.125E-2</v>
+      </c>
+      <c r="D26">
+        <v>3.125E-2</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <v>1.6666666666666701E-2</v>
+      </c>
+      <c r="H26">
+        <v>0</v>
+      </c>
+      <c r="I26">
+        <v>-3.125E-2</v>
+      </c>
+      <c r="J26">
+        <v>-3.125E-2</v>
+      </c>
+      <c r="K26">
+        <v>0</v>
+      </c>
+      <c r="L26">
+        <v>1.6666666666666701E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>3007</v>
+      </c>
+      <c r="B27">
+        <v>3.125E-2</v>
+      </c>
+      <c r="C27">
+        <v>4.1666666666666602E-2</v>
+      </c>
+      <c r="D27">
+        <v>3.6458333333333301E-2</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>1.63934426229508E-2</v>
+      </c>
+      <c r="G27">
+        <v>3.2786885245901697E-2</v>
+      </c>
+      <c r="H27">
+        <v>5.0847457627118599E-2</v>
+      </c>
+      <c r="I27">
+        <v>-2.0064890710382501E-2</v>
+      </c>
+      <c r="J27">
+        <v>1.43891242937853E-2</v>
+      </c>
+      <c r="K27">
+        <v>-1.63934426229508E-2</v>
+      </c>
+      <c r="L27">
+        <v>-1.8060572381216899E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>3008</v>
+      </c>
+      <c r="B28">
+        <v>3.125E-2</v>
+      </c>
+      <c r="C28">
+        <v>5.2083333333333398E-2</v>
+      </c>
+      <c r="D28">
+        <v>4.1666666666666699E-2</v>
+      </c>
+      <c r="E28">
+        <v>3.2786885245901697E-2</v>
+      </c>
+      <c r="F28">
+        <v>1.6949152542372801E-2</v>
+      </c>
+      <c r="G28">
+        <v>5.0847457627118599E-2</v>
+      </c>
+      <c r="H28">
+        <v>6.5573770491803199E-2</v>
+      </c>
+      <c r="I28">
+        <v>-2.47175141242938E-2</v>
+      </c>
+      <c r="J28">
+        <v>2.39071038251366E-2</v>
+      </c>
+      <c r="K28">
+        <v>1.5837732703528801E-2</v>
+      </c>
+      <c r="L28">
+        <v>-1.47263128646846E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>3009</v>
+      </c>
+      <c r="B29">
+        <v>2.0833333333333402E-2</v>
+      </c>
+      <c r="C29">
+        <v>8.42105263157895E-2</v>
+      </c>
+      <c r="D29">
+        <v>5.25219298245614E-2</v>
+      </c>
+      <c r="E29">
+        <v>0.12280701754386</v>
+      </c>
+      <c r="F29">
+        <v>3.4482758620689599E-2</v>
+      </c>
+      <c r="G29">
+        <v>0.1</v>
+      </c>
+      <c r="H29">
+        <v>1.72413793103449E-2</v>
+      </c>
+      <c r="I29">
+        <v>-1.8039171203871801E-2</v>
+      </c>
+      <c r="J29">
+        <v>-3.5280550514216601E-2</v>
+      </c>
+      <c r="K29">
+        <v>8.8324258923170099E-2</v>
+      </c>
+      <c r="L29">
+        <v>8.2758620689655102E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>3010</v>
+      </c>
+      <c r="B30">
+        <v>4.2105263157894798E-2</v>
+      </c>
+      <c r="C30">
+        <v>0.115789473684211</v>
+      </c>
+      <c r="D30">
+        <v>7.8947368421052697E-2</v>
+      </c>
+      <c r="E30">
+        <v>0.12068965517241401</v>
+      </c>
+      <c r="F30">
+        <v>0.13793103448275901</v>
+      </c>
+      <c r="G30">
+        <v>0.27868852459016402</v>
+      </c>
+      <c r="H30">
+        <v>0.19298245614035101</v>
+      </c>
+      <c r="I30">
+        <v>5.8983666061705999E-2</v>
+      </c>
+      <c r="J30">
+        <v>0.114035087719298</v>
+      </c>
+      <c r="K30">
+        <v>-1.72413793103449E-2</v>
+      </c>
+      <c r="L30">
+        <v>8.5706068449813003E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>1029</v>
+      </c>
+      <c r="B31">
+        <v>4.1666666666666602E-2</v>
+      </c>
+      <c r="C31">
+        <v>2.0833333333333402E-2</v>
+      </c>
+      <c r="D31">
+        <v>3.125E-2</v>
+      </c>
+      <c r="E31">
+        <v>5.0847457627118599E-2</v>
+      </c>
+      <c r="F31">
+        <v>8.1967213114754106E-2</v>
+      </c>
+      <c r="G31">
+        <v>4.91803278688525E-2</v>
+      </c>
+      <c r="H31">
+        <v>3.3898305084745797E-2</v>
+      </c>
+      <c r="I31">
+        <v>5.0717213114754099E-2</v>
+      </c>
+      <c r="J31">
+        <v>2.6483050847457799E-3</v>
+      </c>
+      <c r="K31">
+        <v>-3.11197554876355E-2</v>
+      </c>
+      <c r="L31">
+        <v>1.5282022784106701E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>1030</v>
+      </c>
+      <c r="B32">
+        <v>2.1052631578947299E-2</v>
+      </c>
+      <c r="C32">
+        <v>3.125E-2</v>
+      </c>
+      <c r="D32">
+        <v>2.61513157894737E-2</v>
+      </c>
+      <c r="E32">
+        <v>3.3898305084745797E-2</v>
+      </c>
+      <c r="F32">
+        <v>1.6949152542372801E-2</v>
+      </c>
+      <c r="G32">
+        <v>4.91803278688525E-2</v>
+      </c>
+      <c r="H32">
+        <v>0</v>
+      </c>
+      <c r="I32">
+        <v>-9.2021632471008304E-3</v>
+      </c>
+      <c r="J32">
+        <v>-2.61513157894737E-2</v>
+      </c>
+      <c r="K32">
+        <v>1.6949152542372899E-2</v>
+      </c>
+      <c r="L32">
+        <v>4.91803278688525E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A35" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B23">
-        <f>AVERAGE(B2:B21)</f>
-        <v>1.303728070175438E-2</v>
-      </c>
-      <c r="C23">
-        <f t="shared" ref="C23:L23" si="0">AVERAGE(C2:C21)</f>
-        <v>4.0906471631205685E-2</v>
-      </c>
-      <c r="D23">
+      <c r="B35">
+        <f>AVERAGE(B2:B32)</f>
+        <v>1.68470571590266E-2</v>
+      </c>
+      <c r="C35">
+        <f t="shared" ref="C35:L35" si="0">AVERAGE(C2:C32)</f>
+        <v>4.3942205806210825E-2</v>
+      </c>
+      <c r="D35">
         <f t="shared" si="0"/>
-        <v>2.697187616648003E-2</v>
-      </c>
-      <c r="E23">
+        <v>3.0394631482618704E-2</v>
+      </c>
+      <c r="E35">
         <f t="shared" si="0"/>
-        <v>6.0963405005793246E-2</v>
-      </c>
-      <c r="F23">
+        <v>5.5123909011522594E-2</v>
+      </c>
+      <c r="F35">
         <f t="shared" si="0"/>
-        <v>4.4651977538004331E-2</v>
-      </c>
-      <c r="G23">
+        <v>3.6585640579518415E-2</v>
+      </c>
+      <c r="G35">
         <f t="shared" si="0"/>
-        <v>4.2685341887898173E-2</v>
-      </c>
-      <c r="H23">
+        <v>5.2396229092810144E-2</v>
+      </c>
+      <c r="H35">
         <f t="shared" si="0"/>
-        <v>2.3102551088416551E-2</v>
-      </c>
-      <c r="I23">
+        <v>3.0168049495967179E-2</v>
+      </c>
+      <c r="I35">
         <f t="shared" si="0"/>
-        <v>1.768010137152428E-2</v>
-      </c>
-      <c r="J23">
+        <v>6.1910090968996974E-3</v>
+      </c>
+      <c r="J35">
         <f t="shared" si="0"/>
-        <v>-3.8693250780634839E-3</v>
-      </c>
-      <c r="K23">
+        <v>-2.2658198665154709E-4</v>
+      </c>
+      <c r="K35">
         <f t="shared" si="0"/>
-        <v>1.6311427467788929E-2</v>
-      </c>
-      <c r="L23">
-        <f>AVERAGE(L2:L21)</f>
-        <v>1.9582790799481629E-2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
+        <v>1.8538268432004221E-2</v>
+      </c>
+      <c r="L35">
+        <f t="shared" si="0"/>
+        <v>2.2228179596842985E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A36" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B24">
-        <f>STDEV(B2:B21)</f>
-        <v>1.3888691964553005E-2</v>
-      </c>
-      <c r="C24">
-        <f t="shared" ref="C24:L24" si="1">STDEV(C2:C21)</f>
-        <v>4.7773927036492449E-2</v>
-      </c>
-      <c r="D24">
+      <c r="B36">
+        <f>STDEV(B2:B32)</f>
+        <v>1.5657432698391115E-2</v>
+      </c>
+      <c r="C36">
+        <f t="shared" ref="C36:L36" si="1">STDEV(C2:C32)</f>
+        <v>4.1253529892560543E-2</v>
+      </c>
+      <c r="D36">
         <f t="shared" si="1"/>
-        <v>2.3703135060467066E-2</v>
-      </c>
-      <c r="E24">
+        <v>2.2271575707758187E-2</v>
+      </c>
+      <c r="E36">
         <f t="shared" si="1"/>
-        <v>6.8332892056279598E-2</v>
-      </c>
-      <c r="F24">
+        <v>5.8554609408374425E-2</v>
+      </c>
+      <c r="F36">
         <f t="shared" si="1"/>
-        <v>5.5121507718156514E-2</v>
-      </c>
-      <c r="G24">
+        <v>4.2565478084493603E-2</v>
+      </c>
+      <c r="G36">
         <f t="shared" si="1"/>
-        <v>3.2164729995902842E-2</v>
-      </c>
-      <c r="H24">
+        <v>5.2356958737579076E-2</v>
+      </c>
+      <c r="H36">
         <f t="shared" si="1"/>
-        <v>3.6630926981144368E-2</v>
-      </c>
-      <c r="I24">
+        <v>4.377847859794378E-2</v>
+      </c>
+      <c r="I36">
         <f t="shared" si="1"/>
-        <v>4.8062705358469342E-2</v>
-      </c>
-      <c r="J24">
+        <v>3.3652438394214342E-2</v>
+      </c>
+      <c r="J36">
         <f t="shared" si="1"/>
-        <v>2.5766490715021347E-2</v>
-      </c>
-      <c r="K24">
+        <v>3.2156953879535384E-2</v>
+      </c>
+      <c r="K36">
         <f t="shared" si="1"/>
-        <v>3.2181422802718559E-2</v>
-      </c>
-      <c r="L24">
-        <f>STDEV(L2:L21)</f>
-        <v>3.8961229674357993E-2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
+        <v>3.7697154329108598E-2</v>
+      </c>
+      <c r="L36">
+        <f t="shared" si="1"/>
+        <v>3.8606004583522924E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A37" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B25">
-        <f>B24/(SQRT(20))</f>
-        <v>3.1056059351295619E-3</v>
-      </c>
-      <c r="C25">
-        <f t="shared" ref="C25:L25" si="2">C24/(SQRT(20))</f>
-        <v>1.0682574840571219E-2</v>
-      </c>
-      <c r="D25">
+      <c r="B37">
+        <f>B36/(SQRT(31))</f>
+        <v>2.8121579287584374E-3</v>
+      </c>
+      <c r="C37">
+        <f t="shared" ref="C37:L37" si="2">C36/(SQRT(31))</f>
+        <v>7.4093526960239235E-3</v>
+      </c>
+      <c r="D37">
         <f t="shared" si="2"/>
-        <v>5.3001821275062942E-3</v>
-      </c>
-      <c r="E25">
+        <v>4.0000930816040921E-3</v>
+      </c>
+      <c r="E37">
         <f t="shared" si="2"/>
-        <v>1.5279699173699656E-2</v>
-      </c>
-      <c r="F25">
+        <v>1.0516718307850925E-2</v>
+      </c>
+      <c r="F37">
         <f t="shared" si="2"/>
-        <v>1.2325543828007728E-2</v>
-      </c>
-      <c r="G25">
+        <v>7.644985547279542E-3</v>
+      </c>
+      <c r="G37">
         <f t="shared" si="2"/>
-        <v>7.1922522748765283E-3</v>
-      </c>
-      <c r="H25">
+        <v>9.4035873872662813E-3</v>
+      </c>
+      <c r="H37">
         <f t="shared" si="2"/>
-        <v>8.1909242808669968E-3</v>
-      </c>
-      <c r="I25">
+        <v>7.8628468708563937E-3</v>
+      </c>
+      <c r="I37">
         <f t="shared" si="2"/>
-        <v>1.0747147636408085E-2</v>
-      </c>
-      <c r="J25">
+        <v>6.044156361730303E-3</v>
+      </c>
+      <c r="J37">
         <f t="shared" si="2"/>
-        <v>5.7615624780404887E-3</v>
-      </c>
-      <c r="K25">
+        <v>5.7755594137950238E-3</v>
+      </c>
+      <c r="K37">
         <f t="shared" si="2"/>
-        <v>7.1959848999540495E-3</v>
-      </c>
-      <c r="L25">
+        <v>6.7706087888294948E-3</v>
+      </c>
+      <c r="L37">
         <f t="shared" si="2"/>
-        <v>8.7119958038846465E-3</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
+        <v>6.9338431132706917E-3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A38" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B26">
-        <f>B25*1.96</f>
-        <v>6.0869876328539414E-3</v>
-      </c>
-      <c r="C26">
-        <f t="shared" ref="C26:L26" si="3">C25*1.96</f>
-        <v>2.0937846687519589E-2</v>
-      </c>
-      <c r="D26">
+      <c r="B38">
+        <f>B37*1.96</f>
+        <v>5.5118295403665373E-3</v>
+      </c>
+      <c r="C38">
+        <f t="shared" ref="C38:L38" si="3">C37*1.96</f>
+        <v>1.452233128420689E-2</v>
+      </c>
+      <c r="D38">
         <f t="shared" si="3"/>
-        <v>1.0388356969912336E-2</v>
-      </c>
-      <c r="E26">
+        <v>7.8401824399440198E-3</v>
+      </c>
+      <c r="E38">
         <f t="shared" si="3"/>
-        <v>2.9948210380451326E-2</v>
-      </c>
-      <c r="F26">
+        <v>2.0612767883387811E-2</v>
+      </c>
+      <c r="F38">
         <f t="shared" si="3"/>
-        <v>2.4158065902895147E-2</v>
-      </c>
-      <c r="G26">
+        <v>1.4984171672667902E-2</v>
+      </c>
+      <c r="G38">
         <f t="shared" si="3"/>
-        <v>1.4096814458757996E-2</v>
-      </c>
-      <c r="H26">
+        <v>1.8431031279041912E-2</v>
+      </c>
+      <c r="H38">
         <f t="shared" si="3"/>
-        <v>1.6054211590499315E-2</v>
-      </c>
-      <c r="I26">
+        <v>1.5411179866878531E-2</v>
+      </c>
+      <c r="I38">
         <f t="shared" si="3"/>
-        <v>2.1064409367359847E-2</v>
-      </c>
-      <c r="J26">
+        <v>1.1846546468991394E-2</v>
+      </c>
+      <c r="J38">
         <f t="shared" si="3"/>
-        <v>1.1292662456959358E-2</v>
-      </c>
-      <c r="K26">
+        <v>1.1320096451038247E-2</v>
+      </c>
+      <c r="K38">
         <f t="shared" si="3"/>
-        <v>1.4104130403909936E-2</v>
-      </c>
-      <c r="L26">
+        <v>1.327039322610581E-2</v>
+      </c>
+      <c r="L38">
         <f t="shared" si="3"/>
-        <v>1.7075511775613908E-2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
+        <v>1.3590332502010555E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A39" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B27">
-        <f>B23+B26</f>
-        <v>1.912426833460832E-2</v>
-      </c>
-      <c r="C27">
-        <f t="shared" ref="C27:L27" si="4">C23+C26</f>
-        <v>6.1844318318725278E-2</v>
-      </c>
-      <c r="D27">
+      <c r="B39">
+        <f>B35+B38</f>
+        <v>2.2358886699393135E-2</v>
+      </c>
+      <c r="C39">
+        <f t="shared" ref="C39:L39" si="4">C35+C38</f>
+        <v>5.8464537090417712E-2</v>
+      </c>
+      <c r="D39">
         <f t="shared" si="4"/>
-        <v>3.7360233136392362E-2</v>
-      </c>
-      <c r="E27">
+        <v>3.8234813922562727E-2</v>
+      </c>
+      <c r="E39">
         <f t="shared" si="4"/>
-        <v>9.0911615386244565E-2</v>
-      </c>
-      <c r="F27">
+        <v>7.5736676894910399E-2</v>
+      </c>
+      <c r="F39">
         <f t="shared" si="4"/>
-        <v>6.8810043440899471E-2</v>
-      </c>
-      <c r="G27">
+        <v>5.156981225218632E-2</v>
+      </c>
+      <c r="G39">
         <f t="shared" si="4"/>
-        <v>5.6782156346656169E-2</v>
-      </c>
-      <c r="H27">
+        <v>7.0827260371852052E-2</v>
+      </c>
+      <c r="H39">
         <f t="shared" si="4"/>
-        <v>3.9156762678915866E-2</v>
-      </c>
-      <c r="I27">
+        <v>4.5579229362845711E-2</v>
+      </c>
+      <c r="I39">
         <f t="shared" si="4"/>
-        <v>3.874451073888413E-2</v>
-      </c>
-      <c r="J27">
+        <v>1.8037555565891091E-2</v>
+      </c>
+      <c r="J39">
         <f t="shared" si="4"/>
-        <v>7.4233373788958733E-3</v>
-      </c>
-      <c r="K27">
+        <v>1.10935144643867E-2</v>
+      </c>
+      <c r="K39">
         <f t="shared" si="4"/>
-        <v>3.0415557871698865E-2</v>
-      </c>
-      <c r="L27">
+        <v>3.1808661658110027E-2</v>
+      </c>
+      <c r="L39">
         <f t="shared" si="4"/>
-        <v>3.6658302575095537E-2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
+        <v>3.581851209885354E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A40" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B28">
-        <f>B23-B26</f>
-        <v>6.9502930689004389E-3</v>
-      </c>
-      <c r="C28">
-        <f t="shared" ref="C28:L28" si="5">C23-C26</f>
-        <v>1.9968624943686095E-2</v>
-      </c>
-      <c r="D28">
+      <c r="B40">
+        <f>B35-B38</f>
+        <v>1.1335227618660062E-2</v>
+      </c>
+      <c r="C40">
+        <f t="shared" ref="C40:L40" si="5">C35-C38</f>
+        <v>2.9419874522003935E-2</v>
+      </c>
+      <c r="D40">
         <f t="shared" si="5"/>
-        <v>1.6583519196567694E-2</v>
-      </c>
-      <c r="E28">
+        <v>2.2554449042674684E-2</v>
+      </c>
+      <c r="E40">
         <f t="shared" si="5"/>
-        <v>3.101519462534192E-2</v>
-      </c>
-      <c r="F28">
+        <v>3.4511141128134783E-2</v>
+      </c>
+      <c r="F40">
         <f t="shared" si="5"/>
-        <v>2.0493911635109184E-2</v>
-      </c>
-      <c r="G28">
+        <v>2.1601468906850513E-2</v>
+      </c>
+      <c r="G40">
         <f t="shared" si="5"/>
-        <v>2.8588527429140177E-2</v>
-      </c>
-      <c r="H28">
+        <v>3.3965197813768236E-2</v>
+      </c>
+      <c r="H40">
         <f t="shared" si="5"/>
-        <v>7.0483394979172359E-3</v>
-      </c>
-      <c r="I28">
+        <v>1.4756869629088648E-2</v>
+      </c>
+      <c r="I40">
         <f t="shared" si="5"/>
-        <v>-3.3843079958355664E-3</v>
-      </c>
-      <c r="J28">
+        <v>-5.6555373720916964E-3</v>
+      </c>
+      <c r="J40">
         <f t="shared" si="5"/>
-        <v>-1.5161987535022842E-2</v>
-      </c>
-      <c r="K28">
+        <v>-1.1546678437689794E-2</v>
+      </c>
+      <c r="K40">
         <f t="shared" si="5"/>
-        <v>2.2072970638789928E-3</v>
-      </c>
-      <c r="L28">
+        <v>5.2678752058984112E-3</v>
+      </c>
+      <c r="L40">
         <f t="shared" si="5"/>
-        <v>2.5072790238677214E-3</v>
+        <v>8.6378470948324307E-3</v>
       </c>
     </row>
   </sheetData>
@@ -1624,19 +2042,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B98B6F23-48BD-402D-A17B-4A837A297F6B}">
-  <dimension ref="A1:L28"/>
+  <dimension ref="A1:M39"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L21" sqref="L2:L21"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="9" max="9" width="13.42578125" customWidth="1"/>
+    <col min="9" max="9" width="13.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1674,7 +2092,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1001</v>
       </c>
@@ -1712,7 +2130,7 @@
         <v>416.56821339260898</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1002</v>
       </c>
@@ -1750,7 +2168,7 @@
         <v>23.517231638418</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1003</v>
       </c>
@@ -1764,13 +2182,13 @@
         <v>937.43804068272198</v>
       </c>
       <c r="E4">
-        <v>2723.1851851851902</v>
+        <v>2627.8301886792501</v>
       </c>
       <c r="F4">
         <v>2651.9833333333299</v>
       </c>
       <c r="G4">
-        <v>2738.1</v>
+        <v>2661.8813559322002</v>
       </c>
       <c r="H4">
         <v>1745.6724137931001</v>
@@ -1782,13 +2200,13 @@
         <v>808.23437311038197</v>
       </c>
       <c r="K4">
-        <v>71.201851851852098</v>
+        <v>-24.153144654087999</v>
       </c>
       <c r="L4">
-        <v>992.42758620689597</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+        <v>916.20894213910003</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1007</v>
       </c>
@@ -1826,7 +2244,7 @@
         <v>273.37206223104897</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>1008</v>
       </c>
@@ -1864,7 +2282,7 @@
         <v>430.53820505696001</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>1009</v>
       </c>
@@ -1902,7 +2320,7 @@
         <v>243.87931034482801</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>1010</v>
       </c>
@@ -1910,37 +2328,37 @@
         <v>1628.1702127659601</v>
       </c>
       <c r="C8">
-        <v>1540.81720430108</v>
+        <v>1479.46739130435</v>
       </c>
       <c r="D8">
-        <v>1584.49370853352</v>
+        <v>1553.8188020351499</v>
       </c>
       <c r="E8">
-        <v>5348.5</v>
+        <v>5089.4375</v>
       </c>
       <c r="F8">
-        <v>6108.1818181818198</v>
+        <v>5381.1428571428596</v>
       </c>
       <c r="G8">
-        <v>5109.9761904761899</v>
+        <v>4942.9743589743603</v>
       </c>
       <c r="H8">
-        <v>4743.7959183673502</v>
+        <v>4562.8478260869597</v>
       </c>
       <c r="I8">
-        <v>4523.6881096483003</v>
+        <v>3827.3240551077001</v>
       </c>
       <c r="J8">
-        <v>3159.3022098338301</v>
+        <v>3009.0290240518002</v>
       </c>
       <c r="K8">
-        <v>-759.68181818181802</v>
+        <v>-291.705357142857</v>
       </c>
       <c r="L8">
-        <v>366.18027210884401</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+        <v>380.12653288740199</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>1011</v>
       </c>
@@ -1954,31 +2372,31 @@
         <v>693.31663234957705</v>
       </c>
       <c r="E9">
-        <v>1819.6379310344801</v>
+        <v>1682.6120689655199</v>
       </c>
       <c r="F9">
-        <v>1776.6140350877199</v>
+        <v>1599.2241379310301</v>
       </c>
       <c r="G9">
-        <v>1545.58620689655</v>
+        <v>1682.6120689655199</v>
       </c>
       <c r="H9">
-        <v>1427.8474576271201</v>
+        <v>1599.2241379310301</v>
       </c>
       <c r="I9">
-        <v>1083.2974027381399</v>
+        <v>905.90750558145805</v>
       </c>
       <c r="J9">
-        <v>734.53082527754202</v>
+        <v>905.90750558145805</v>
       </c>
       <c r="K9">
-        <v>43.023895946763602</v>
+        <v>83.387931034482804</v>
       </c>
       <c r="L9">
-        <v>117.738749269433</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+        <v>83.387931034482804</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>1014</v>
       </c>
@@ -1992,13 +2410,13 @@
         <v>1240.22836538462</v>
       </c>
       <c r="E10">
-        <v>2400.3846153846198</v>
+        <v>2299.0392156862699</v>
       </c>
       <c r="F10">
         <v>1885.5283018867899</v>
       </c>
       <c r="G10">
-        <v>2339.3214285714298</v>
+        <v>2249.0909090909099</v>
       </c>
       <c r="H10">
         <v>2335.0925925925899</v>
@@ -2010,13 +2428,13 @@
         <v>1094.8642272079801</v>
       </c>
       <c r="K10">
-        <v>514.85631349782295</v>
+        <v>413.51091379948201</v>
       </c>
       <c r="L10">
-        <v>4.2288359788358303</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+        <v>-86.001683501683601</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>1015</v>
       </c>
@@ -2054,7 +2472,7 @@
         <v>40.547186932849399</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>1016</v>
       </c>
@@ -2092,7 +2510,7 @@
         <v>371.09614035087702</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>1017</v>
       </c>
@@ -2115,22 +2533,22 @@
         <v>1708.7931034482799</v>
       </c>
       <c r="H13">
-        <v>1861.6206896551701</v>
+        <v>1766.3684210526301</v>
       </c>
       <c r="I13">
         <v>1037.5269961107299</v>
       </c>
       <c r="J13">
-        <v>1248.6476857659</v>
+        <v>1153.39541716336</v>
       </c>
       <c r="K13">
         <v>62.131578947368297</v>
       </c>
       <c r="L13">
-        <v>-152.827586206897</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+        <v>-57.575317604355902</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>1018</v>
       </c>
@@ -2150,7 +2568,7 @@
         <v>2109.8000000000002</v>
       </c>
       <c r="G14">
-        <v>2683.6140350877199</v>
+        <v>2603.9285714285702</v>
       </c>
       <c r="H14">
         <v>2157.2033898305099</v>
@@ -2165,10 +2583,10 @@
         <v>230.68275862069001</v>
       </c>
       <c r="L14">
-        <v>526.41064525721094</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+        <v>446.72518159806299</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>1019</v>
       </c>
@@ -2185,7 +2603,7 @@
         <v>1676.2156862745101</v>
       </c>
       <c r="F15">
-        <v>1870.85964912281</v>
+        <v>1774.8571428571399</v>
       </c>
       <c r="G15">
         <v>1996.21052631579</v>
@@ -2194,19 +2612,19 @@
         <v>1742.7017543859599</v>
       </c>
       <c r="I15">
-        <v>1004.85650338957</v>
+        <v>908.85399712390097</v>
       </c>
       <c r="J15">
         <v>876.69860865272301</v>
       </c>
       <c r="K15">
-        <v>-194.64396284829701</v>
+        <v>-98.641456582633097</v>
       </c>
       <c r="L15">
         <v>253.50877192982401</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>1020</v>
       </c>
@@ -2229,22 +2647,22 @@
         <v>2591.2264150943402</v>
       </c>
       <c r="H16">
-        <v>2170.0517241379298</v>
+        <v>2081.17543859649</v>
       </c>
       <c r="I16">
         <v>806.16937419273302</v>
       </c>
       <c r="J16">
-        <v>1164.20385695135</v>
+        <v>1075.32757140991</v>
       </c>
       <c r="K16">
         <v>298.58275862069002</v>
       </c>
       <c r="L16">
-        <v>421.17469095640899</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+        <v>510.05097649784801</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>1022</v>
       </c>
@@ -2267,22 +2685,22 @@
         <v>2260.65</v>
       </c>
       <c r="H17">
-        <v>2337.89473684211</v>
+        <v>2248.2321428571399</v>
       </c>
       <c r="I17">
         <v>997.63059628543499</v>
       </c>
       <c r="J17">
-        <v>1449.81624221845</v>
+        <v>1360.15364823349</v>
       </c>
       <c r="K17">
         <v>76.309090909090898</v>
       </c>
       <c r="L17">
-        <v>-77.244736842105297</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+        <v>12.4178571428574</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>1023</v>
       </c>
@@ -2320,412 +2738,832 @@
         <v>107.154385964912</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>1024</v>
       </c>
       <c r="B19">
+        <v>945.27083333333303</v>
+      </c>
+      <c r="C19">
         <v>781.33684210526303</v>
-      </c>
-      <c r="C19">
-        <v>945.27083333333303</v>
       </c>
       <c r="D19">
         <v>863.30383771929803</v>
       </c>
       <c r="E19">
+        <v>1630.93220338983</v>
+      </c>
+      <c r="F19">
+        <v>1502.5737704917999</v>
+      </c>
+      <c r="G19">
         <v>1987.90163934426</v>
       </c>
-      <c r="F19">
+      <c r="H19">
         <v>1791.1186440678</v>
       </c>
-      <c r="G19">
-        <v>1630.93220338983</v>
-      </c>
-      <c r="H19">
-        <v>1502.5737704917999</v>
-      </c>
       <c r="I19">
+        <v>639.26993277250494</v>
+      </c>
+      <c r="J19">
         <v>927.814806348498</v>
       </c>
-      <c r="J19">
-        <v>639.26993277250494</v>
-      </c>
       <c r="K19">
+        <v>128.35843289802699</v>
+      </c>
+      <c r="L19">
         <v>196.78299527646601</v>
       </c>
-      <c r="L19">
-        <v>128.35843289802699</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>1025</v>
       </c>
       <c r="B20">
+        <v>918.90526315789498</v>
+      </c>
+      <c r="C20">
         <v>1040.04255319149</v>
-      </c>
-      <c r="C20">
-        <v>918.90526315789498</v>
       </c>
       <c r="D20">
         <v>979.47390817469204</v>
       </c>
       <c r="E20">
+        <v>2623.8363636363601</v>
+      </c>
+      <c r="F20">
+        <v>2642.5593220339001</v>
+      </c>
+      <c r="G20">
         <v>2352.1132075471701</v>
       </c>
-      <c r="F20">
+      <c r="H20">
         <v>2201.8771929824602</v>
       </c>
-      <c r="G20">
-        <v>2623.8363636363601</v>
-      </c>
-      <c r="H20">
-        <v>2642.5593220339001</v>
-      </c>
       <c r="I20">
+        <v>1663.0854138592099</v>
+      </c>
+      <c r="J20">
         <v>1222.40328480776</v>
       </c>
-      <c r="J20">
-        <v>1663.0854138592099</v>
-      </c>
       <c r="K20">
+        <v>-18.722958397534502</v>
+      </c>
+      <c r="L20">
         <v>150.236014564714</v>
       </c>
-      <c r="L20">
-        <v>-18.722958397534502</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21">
+        <v>3001</v>
+      </c>
+      <c r="B21">
+        <v>795.46875</v>
+      </c>
+      <c r="C21">
+        <v>828.840425531915</v>
+      </c>
+      <c r="D21">
+        <v>812.15458776595699</v>
+      </c>
+      <c r="E21">
+        <v>1496.69642857143</v>
+      </c>
+      <c r="F21">
+        <v>1618.3442622950799</v>
+      </c>
+      <c r="G21">
+        <v>1584.1</v>
+      </c>
+      <c r="H21">
+        <v>1541.8571428571399</v>
+      </c>
+      <c r="I21">
+        <v>806.189674529125</v>
+      </c>
+      <c r="J21">
+        <v>729.70255509118499</v>
+      </c>
+      <c r="K21">
+        <v>-121.64783372365299</v>
+      </c>
+      <c r="L21">
+        <v>42.242857142856998</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>3002</v>
+      </c>
+      <c r="B22">
+        <v>742.13829787233999</v>
+      </c>
+      <c r="C22">
+        <v>900.255319148936</v>
+      </c>
+      <c r="D22">
+        <v>821.19680851063799</v>
+      </c>
+      <c r="E22">
+        <v>2588.0862068965498</v>
+      </c>
+      <c r="F22">
+        <v>2710.6393442622998</v>
+      </c>
+      <c r="G22">
+        <v>3392.6379310344801</v>
+      </c>
+      <c r="H22">
+        <v>2510.0877192982498</v>
+      </c>
+      <c r="I22">
+        <v>1889.44253575166</v>
+      </c>
+      <c r="J22">
+        <v>1688.89091078761</v>
+      </c>
+      <c r="K22">
+        <v>-122.55313736574401</v>
+      </c>
+      <c r="L22">
+        <v>882.55021173623697</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>3003</v>
+      </c>
+      <c r="B23">
+        <v>711.41666666666697</v>
+      </c>
+      <c r="C23">
+        <v>1548.41758241758</v>
+      </c>
+      <c r="D23">
+        <v>1129.9171245421201</v>
+      </c>
+      <c r="E23">
+        <v>1692.1607142857099</v>
+      </c>
+      <c r="F23">
+        <v>1828.3157894736801</v>
+      </c>
+      <c r="G23">
+        <v>1741.1272727272701</v>
+      </c>
+      <c r="H23">
+        <v>1474.52727272727</v>
+      </c>
+      <c r="I23">
+        <v>698.39866493156001</v>
+      </c>
+      <c r="J23">
+        <v>344.61014818514798</v>
+      </c>
+      <c r="K23">
+        <v>-136.15507518797</v>
+      </c>
+      <c r="L23">
+        <v>266.60000000000002</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>3004</v>
+      </c>
+      <c r="B24">
+        <v>642.86813186813197</v>
+      </c>
+      <c r="C24">
+        <v>756.32967032966997</v>
+      </c>
+      <c r="D24">
+        <v>699.59890109890102</v>
+      </c>
+      <c r="E24">
+        <v>1431.1355932203401</v>
+      </c>
+      <c r="F24">
+        <v>1134.8644067796599</v>
+      </c>
+      <c r="G24">
+        <v>1467.1111111111099</v>
+      </c>
+      <c r="H24">
+        <v>1257.5999999999999</v>
+      </c>
+      <c r="I24">
+        <v>435.26550568075999</v>
+      </c>
+      <c r="J24">
+        <v>558.001098901099</v>
+      </c>
+      <c r="K24">
+        <v>296.27118644067798</v>
+      </c>
+      <c r="L24">
+        <v>209.51111111111101</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>3006</v>
+      </c>
+      <c r="B25">
+        <v>646.75268817204301</v>
+      </c>
+      <c r="C25">
+        <v>616.19354838709705</v>
+      </c>
+      <c r="D25">
+        <v>631.47311827957003</v>
+      </c>
+      <c r="E25">
+        <v>1193.7966101694899</v>
+      </c>
+      <c r="F25">
+        <v>964.44262295082001</v>
+      </c>
+      <c r="G25">
+        <v>1615.4915254237301</v>
+      </c>
+      <c r="H25">
+        <v>1452.69491525424</v>
+      </c>
+      <c r="I25">
+        <v>332.96950467124998</v>
+      </c>
+      <c r="J25">
+        <v>821.22179697466697</v>
+      </c>
+      <c r="K25">
+        <v>229.35398721867199</v>
+      </c>
+      <c r="L25">
+        <v>162.796610169491</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>3007</v>
+      </c>
+      <c r="B26">
+        <v>712.38709677419399</v>
+      </c>
+      <c r="C26">
+        <v>692.43478260869597</v>
+      </c>
+      <c r="D26">
+        <v>702.41093969144504</v>
+      </c>
+      <c r="E26">
+        <v>2008.93220338983</v>
+      </c>
+      <c r="F26">
+        <v>2046.56666666667</v>
+      </c>
+      <c r="G26">
+        <v>1731.0847457627101</v>
+      </c>
+      <c r="H26">
+        <v>1512.80357142857</v>
+      </c>
+      <c r="I26">
+        <v>1344.15572697522</v>
+      </c>
+      <c r="J26">
+        <v>810.39263173712698</v>
+      </c>
+      <c r="K26">
+        <v>-37.6344632768362</v>
+      </c>
+      <c r="L26">
+        <v>218.28117433414101</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>3008</v>
+      </c>
+      <c r="B27">
+        <v>617.45161290322596</v>
+      </c>
+      <c r="C27">
+        <v>584.27472527472503</v>
+      </c>
+      <c r="D27">
+        <v>600.86316908897595</v>
+      </c>
+      <c r="E27">
+        <v>1436.5084745762699</v>
+      </c>
+      <c r="F27">
+        <v>1528.43103448276</v>
+      </c>
+      <c r="G27">
+        <v>1258.4107142857099</v>
+      </c>
+      <c r="H27">
+        <v>1341.7543859649099</v>
+      </c>
+      <c r="I27">
+        <v>927.56786539378299</v>
+      </c>
+      <c r="J27">
+        <v>740.89121687593695</v>
+      </c>
+      <c r="K27">
+        <v>-91.922559906487294</v>
+      </c>
+      <c r="L27">
+        <v>-83.343671679197996</v>
+      </c>
+      <c r="M27" s="1"/>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>3009</v>
+      </c>
+      <c r="B28">
+        <v>936.659574468085</v>
+      </c>
+      <c r="C28">
+        <v>1048.89655172414</v>
+      </c>
+      <c r="D28">
+        <v>992.77806309611196</v>
+      </c>
+      <c r="E28">
+        <v>2459.44</v>
+      </c>
+      <c r="F28">
+        <v>2332.6785714285702</v>
+      </c>
+      <c r="G28">
+        <v>2546.0555555555602</v>
+      </c>
+      <c r="H28">
+        <v>1862.2456140350901</v>
+      </c>
+      <c r="I28">
+        <v>1339.90050833246</v>
+      </c>
+      <c r="J28">
+        <v>869.46755093897605</v>
+      </c>
+      <c r="K28">
+        <v>126.761428571428</v>
+      </c>
+      <c r="L28">
+        <v>683.80994152046799</v>
+      </c>
+      <c r="M28" s="1"/>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>3010</v>
+      </c>
+      <c r="B29">
+        <v>900.08791208791195</v>
+      </c>
+      <c r="C29">
+        <v>1451</v>
+      </c>
+      <c r="D29">
+        <v>1175.54395604396</v>
+      </c>
+      <c r="E29">
+        <v>3155.6078431372498</v>
+      </c>
+      <c r="F29">
+        <v>3068.96</v>
+      </c>
+      <c r="G29">
+        <v>2682.3863636363599</v>
+      </c>
+      <c r="H29">
+        <v>2624.6304347826099</v>
+      </c>
+      <c r="I29">
+        <v>1893.4160439560401</v>
+      </c>
+      <c r="J29">
+        <v>1449.0864787386499</v>
+      </c>
+      <c r="K29">
+        <v>86.647843137254796</v>
+      </c>
+      <c r="L29">
+        <v>57.755928853755002</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A30">
         <v>1026</v>
       </c>
-      <c r="B21">
+      <c r="B30">
         <v>1101.5052631578901</v>
       </c>
-      <c r="C21">
+      <c r="C30">
         <v>964.404255319149</v>
       </c>
-      <c r="D21">
+      <c r="D30">
         <v>1032.95475923852</v>
       </c>
-      <c r="E21">
+      <c r="E30">
         <v>2262.9285714285702</v>
       </c>
-      <c r="F21">
+      <c r="F30">
         <v>1878.40677966102</v>
       </c>
-      <c r="G21">
+      <c r="G30">
         <v>2452.7413793103401</v>
       </c>
-      <c r="H21">
+      <c r="H30">
         <v>1892.4210526315801</v>
       </c>
-      <c r="I21">
+      <c r="I30">
         <v>845.45202042249502</v>
       </c>
-      <c r="J21">
+      <c r="J30">
         <v>859.46629339305696</v>
       </c>
-      <c r="K21">
+      <c r="K30">
         <v>384.52179176755499</v>
       </c>
-      <c r="L21">
+      <c r="L30">
         <v>560.32032667876604</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>1029</v>
+      </c>
+      <c r="B31">
+        <v>1133.3913043478301</v>
+      </c>
+      <c r="C31">
+        <v>1133.95744680851</v>
+      </c>
+      <c r="D31">
+        <v>1133.6743755781699</v>
+      </c>
+      <c r="E31">
+        <v>2407.9642857142899</v>
+      </c>
+      <c r="F31">
+        <v>2468.8214285714298</v>
+      </c>
+      <c r="G31">
+        <v>2258.8275862068999</v>
+      </c>
+      <c r="H31">
+        <v>1916.89473684211</v>
+      </c>
+      <c r="I31">
+        <v>1335.1470529932601</v>
+      </c>
+      <c r="J31">
+        <v>783.22036126393698</v>
+      </c>
+      <c r="K31">
+        <v>-60.857142857142698</v>
+      </c>
+      <c r="L31">
+        <v>341.93284936479199</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>1030</v>
+      </c>
+      <c r="B32">
+        <v>822.27956989247298</v>
+      </c>
+      <c r="C32">
+        <v>861.17204301075299</v>
+      </c>
+      <c r="D32">
+        <v>841.72580645161304</v>
+      </c>
+      <c r="E32">
+        <v>1560.84210526316</v>
+      </c>
+      <c r="F32">
+        <v>1621.3103448275899</v>
+      </c>
+      <c r="G32">
+        <v>2017.8793103448299</v>
+      </c>
+      <c r="H32">
+        <v>1894.7758620689699</v>
+      </c>
+      <c r="I32">
+        <v>779.58453837597301</v>
+      </c>
+      <c r="J32">
+        <v>1053.0500556173499</v>
+      </c>
+      <c r="K32">
+        <v>-60.468239564428401</v>
+      </c>
+      <c r="L32">
+        <v>123.10344827586199</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A34" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B23">
-        <f>AVERAGE(B2:B21)</f>
-        <v>935.72848469356541</v>
-      </c>
-      <c r="C23">
-        <f t="shared" ref="C23:L23" si="0">AVERAGE(C2:C21)</f>
-        <v>1032.1935502092094</v>
-      </c>
-      <c r="D23">
+      <c r="B34">
+        <f>AVERAGE(B1:B32)</f>
+        <v>884.46025806834484</v>
+      </c>
+      <c r="C34">
+        <f t="shared" ref="C34:L34" si="0">AVERAGE(C1:C32)</f>
+        <v>998.75795436241935</v>
+      </c>
+      <c r="D34">
         <f t="shared" si="0"/>
-        <v>983.96101745138765</v>
-      </c>
-      <c r="E23">
+        <v>941.60910621538198</v>
+      </c>
+      <c r="E34">
         <f t="shared" si="0"/>
-        <v>2188.0505783010403</v>
-      </c>
-      <c r="F23">
+        <v>2081.1015159066656</v>
+      </c>
+      <c r="F34">
         <f t="shared" si="0"/>
-        <v>2117.8400972290283</v>
-      </c>
-      <c r="G23">
+        <v>2026.8349131397824</v>
+      </c>
+      <c r="G34">
         <f t="shared" si="0"/>
-        <v>2248.1043476607797</v>
-      </c>
-      <c r="H23">
+        <v>2163.4301533073922</v>
+      </c>
+      <c r="H34">
         <f t="shared" si="0"/>
-        <v>1996.6930593732691</v>
-      </c>
-      <c r="I23">
+        <v>1899.6204202304407</v>
+      </c>
+      <c r="I34">
         <f t="shared" si="0"/>
-        <v>1133.8790797776392</v>
-      </c>
-      <c r="J23">
+        <v>1085.2258069243994</v>
+      </c>
+      <c r="J34">
         <f t="shared" si="0"/>
-        <v>1012.7320419218817</v>
-      </c>
-      <c r="K23">
+        <v>958.01131401505813</v>
+      </c>
+      <c r="K34">
         <f t="shared" si="0"/>
-        <v>70.210481072013394</v>
-      </c>
-      <c r="L23">
+        <v>54.26660276688434</v>
+      </c>
+      <c r="L34">
         <f t="shared" si="0"/>
-        <v>251.41128828751056</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
+        <v>263.80973307695172</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A35" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B24">
-        <f>STDEV(B2:B21)</f>
-        <v>309.09319357918719</v>
-      </c>
-      <c r="C24">
-        <f t="shared" ref="C24:L24" si="1">STDEV(C2:C21)</f>
-        <v>351.73367121108038</v>
-      </c>
-      <c r="D24">
+      <c r="B35">
+        <f>STDEV(B1:B32)</f>
+        <v>269.60105113823471</v>
+      </c>
+      <c r="C35">
+        <f t="shared" ref="C35:L35" si="1">STDEV(C1:C32)</f>
+        <v>336.93071922110937</v>
+      </c>
+      <c r="D35">
         <f t="shared" si="1"/>
-        <v>291.9967329511079</v>
-      </c>
-      <c r="E24">
+        <v>265.60355070132078</v>
+      </c>
+      <c r="E35">
         <f t="shared" si="1"/>
-        <v>822.16470298056583</v>
-      </c>
-      <c r="F24">
+        <v>726.62065555204617</v>
+      </c>
+      <c r="F35">
         <f t="shared" si="1"/>
-        <v>985.10631098886154</v>
-      </c>
-      <c r="G24">
+        <v>781.2674882347502</v>
+      </c>
+      <c r="G35">
         <f t="shared" si="1"/>
-        <v>806.99913879083215</v>
-      </c>
-      <c r="H24">
+        <v>708.54836936056495</v>
+      </c>
+      <c r="H35">
         <f t="shared" si="1"/>
-        <v>759.03193986606118</v>
-      </c>
-      <c r="I24">
+        <v>621.46741994232173</v>
+      </c>
+      <c r="I35">
         <f t="shared" si="1"/>
-        <v>846.10854863840893</v>
-      </c>
-      <c r="J24">
+        <v>651.15091852377952</v>
+      </c>
+      <c r="J35">
         <f t="shared" si="1"/>
-        <v>606.46204523063784</v>
-      </c>
-      <c r="K24">
+        <v>489.13083909979792</v>
+      </c>
+      <c r="K35">
         <f t="shared" si="1"/>
-        <v>266.13913109412806</v>
-      </c>
-      <c r="L24">
+        <v>175.54581208380736</v>
+      </c>
+      <c r="L35">
         <f t="shared" si="1"/>
-        <v>270.68067824653491</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
+        <v>256.109960048907</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A36" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B25">
-        <f>B24/(SQRT(20))</f>
-        <v>69.115339222556401</v>
-      </c>
-      <c r="C25">
-        <f t="shared" ref="C25:L25" si="2">C24/(SQRT(20))</f>
-        <v>78.650039880353646</v>
-      </c>
-      <c r="D25">
+      <c r="B36">
+        <f>B35/(SQRT(31))</f>
+        <v>48.42177821641863</v>
+      </c>
+      <c r="C36">
+        <f t="shared" ref="C36:L36" si="2">C35/(SQRT(31))</f>
+        <v>60.514543587805846</v>
+      </c>
+      <c r="D36">
         <f t="shared" si="2"/>
-        <v>65.292454408653001</v>
-      </c>
-      <c r="E25">
+        <v>47.703805943094544</v>
+      </c>
+      <c r="E36">
         <f t="shared" si="2"/>
-        <v>183.84161645654692</v>
-      </c>
-      <c r="F25">
+        <v>130.50492229931842</v>
+      </c>
+      <c r="F36">
         <f t="shared" si="2"/>
-        <v>220.27646764351422</v>
-      </c>
-      <c r="G25">
+        <v>140.31978318810212</v>
+      </c>
+      <c r="G36">
         <f t="shared" si="2"/>
-        <v>180.45049321200881</v>
-      </c>
-      <c r="H25">
+        <v>127.25904387958313</v>
+      </c>
+      <c r="H36">
         <f t="shared" si="2"/>
-        <v>169.72470146340453</v>
-      </c>
-      <c r="I25">
+        <v>111.61884365854125</v>
+      </c>
+      <c r="I36">
         <f t="shared" si="2"/>
-        <v>189.19562310991694</v>
-      </c>
-      <c r="J25">
+        <v>116.95015738647533</v>
+      </c>
+      <c r="J36">
         <f t="shared" si="2"/>
-        <v>135.60903589092584</v>
-      </c>
-      <c r="K25">
+        <v>87.850492087129055</v>
+      </c>
+      <c r="K36">
         <f t="shared" si="2"/>
-        <v>59.510518859919827</v>
-      </c>
-      <c r="L25">
+        <v>31.528958598847694</v>
+      </c>
+      <c r="L36">
         <f t="shared" si="2"/>
-        <v>60.526039675500058</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
+        <v>45.998706726649196</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A37" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B26">
-        <f>B25*1.96</f>
-        <v>135.46606487621054</v>
-      </c>
-      <c r="C26">
-        <f t="shared" ref="C26:L26" si="3">C25*1.96</f>
-        <v>154.15407816549313</v>
-      </c>
-      <c r="D26">
+      <c r="B37">
+        <f>B36*1.96</f>
+        <v>94.906685304180513</v>
+      </c>
+      <c r="C37">
+        <f t="shared" ref="C37:L37" si="3">C36*1.96</f>
+        <v>118.60850543209946</v>
+      </c>
+      <c r="D37">
         <f t="shared" si="3"/>
-        <v>127.97321064095988</v>
-      </c>
-      <c r="E26">
+        <v>93.499459648465304</v>
+      </c>
+      <c r="E37">
         <f t="shared" si="3"/>
-        <v>360.32956825483194</v>
-      </c>
-      <c r="F26">
+        <v>255.78964770666411</v>
+      </c>
+      <c r="F37">
         <f t="shared" si="3"/>
-        <v>431.7418765812879</v>
-      </c>
-      <c r="G26">
+        <v>275.02677504868018</v>
+      </c>
+      <c r="G37">
         <f t="shared" si="3"/>
-        <v>353.68296669553723</v>
-      </c>
-      <c r="H26">
+        <v>249.42772600398294</v>
+      </c>
+      <c r="H37">
         <f t="shared" si="3"/>
-        <v>332.66041486827288</v>
-      </c>
-      <c r="I26">
+        <v>218.77293357074086</v>
+      </c>
+      <c r="I37">
         <f t="shared" si="3"/>
-        <v>370.82342129543719</v>
-      </c>
-      <c r="J26">
+        <v>229.22230847749162</v>
+      </c>
+      <c r="J37">
         <f t="shared" si="3"/>
-        <v>265.79371034621465</v>
-      </c>
-      <c r="K26">
+        <v>172.18696449077294</v>
+      </c>
+      <c r="K37">
         <f t="shared" si="3"/>
-        <v>116.64061696544286</v>
-      </c>
-      <c r="L26">
+        <v>61.79675885374148</v>
+      </c>
+      <c r="L37">
         <f t="shared" si="3"/>
-        <v>118.63103776398012</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
+        <v>90.157465184232422</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A38" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B27">
-        <f>B23+B26</f>
-        <v>1071.194549569776</v>
-      </c>
-      <c r="C27">
-        <f t="shared" ref="C27:L27" si="4">C23+C26</f>
-        <v>1186.3476283747025</v>
-      </c>
-      <c r="D27">
+      <c r="B38">
+        <f>B34+B37</f>
+        <v>979.36694337252538</v>
+      </c>
+      <c r="C38">
+        <f t="shared" ref="C38:L38" si="4">C34+C37</f>
+        <v>1117.3664597945187</v>
+      </c>
+      <c r="D38">
         <f t="shared" si="4"/>
-        <v>1111.9342280923474</v>
-      </c>
-      <c r="E27">
+        <v>1035.1085658638474</v>
+      </c>
+      <c r="E38">
         <f t="shared" si="4"/>
-        <v>2548.3801465558722</v>
-      </c>
-      <c r="F27">
+        <v>2336.8911636133298</v>
+      </c>
+      <c r="F38">
         <f t="shared" si="4"/>
-        <v>2549.5819738103164</v>
-      </c>
-      <c r="G27">
+        <v>2301.8616881884627</v>
+      </c>
+      <c r="G38">
         <f t="shared" si="4"/>
-        <v>2601.787314356317</v>
-      </c>
-      <c r="H27">
+        <v>2412.8578793113752</v>
+      </c>
+      <c r="H38">
         <f t="shared" si="4"/>
-        <v>2329.3534742415418</v>
-      </c>
-      <c r="I27">
+        <v>2118.3933538011815</v>
+      </c>
+      <c r="I38">
         <f t="shared" si="4"/>
-        <v>1504.7025010730763</v>
-      </c>
-      <c r="J27">
+        <v>1314.4481154018911</v>
+      </c>
+      <c r="J38">
         <f t="shared" si="4"/>
-        <v>1278.5257522680963</v>
-      </c>
-      <c r="K27">
+        <v>1130.198278505831</v>
+      </c>
+      <c r="K38">
         <f t="shared" si="4"/>
-        <v>186.85109803745627</v>
-      </c>
-      <c r="L27">
+        <v>116.06336162062581</v>
+      </c>
+      <c r="L38">
         <f t="shared" si="4"/>
-        <v>370.0423260514907</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
+        <v>353.96719826118414</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A39" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B28">
-        <f>B23-B26</f>
-        <v>800.26241981735484</v>
-      </c>
-      <c r="C28">
-        <f t="shared" ref="C28:L28" si="5">C23-C26</f>
-        <v>878.03947204371627</v>
-      </c>
-      <c r="D28">
+      <c r="B39">
+        <f>B34-B37</f>
+        <v>789.5535727641643</v>
+      </c>
+      <c r="C39">
+        <f t="shared" ref="C39:L39" si="5">C34-C37</f>
+        <v>880.14944893031986</v>
+      </c>
+      <c r="D39">
         <f t="shared" si="5"/>
-        <v>855.98780681042774</v>
-      </c>
-      <c r="E28">
+        <v>848.10964656691669</v>
+      </c>
+      <c r="E39">
         <f t="shared" si="5"/>
-        <v>1827.7210100462084</v>
-      </c>
-      <c r="F28">
+        <v>1825.3118682000015</v>
+      </c>
+      <c r="F39">
         <f t="shared" si="5"/>
-        <v>1686.0982206477404</v>
-      </c>
-      <c r="G28">
+        <v>1751.8081380911021</v>
+      </c>
+      <c r="G39">
         <f t="shared" si="5"/>
-        <v>1894.4213809652424</v>
-      </c>
-      <c r="H28">
+        <v>1914.0024273034091</v>
+      </c>
+      <c r="H39">
         <f t="shared" si="5"/>
-        <v>1664.0326445049961</v>
-      </c>
-      <c r="I28">
+        <v>1680.8474866596998</v>
+      </c>
+      <c r="I39">
         <f t="shared" si="5"/>
-        <v>763.05565848220203</v>
-      </c>
-      <c r="J28">
+        <v>856.00349844690777</v>
+      </c>
+      <c r="J39">
         <f t="shared" si="5"/>
-        <v>746.93833157566701</v>
-      </c>
-      <c r="K28">
+        <v>785.82434952428525</v>
+      </c>
+      <c r="K39">
         <f t="shared" si="5"/>
-        <v>-46.430135893429465</v>
-      </c>
-      <c r="L28">
+        <v>-7.53015608685714</v>
+      </c>
+      <c r="L39">
         <f t="shared" si="5"/>
-        <v>132.78025052353044</v>
+        <v>173.65226789271929</v>
       </c>
     </row>
   </sheetData>
@@ -2735,16 +3573,16 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1B5B3B6-E066-499C-A3AA-C3C7E4C73E0C}">
-  <dimension ref="A1:L28"/>
+  <dimension ref="A1:M40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D7" sqref="D7"/>
+      <selection pane="bottomLeft" activeCell="P29" sqref="P29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2782,1058 +3620,1477 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1001</v>
       </c>
       <c r="B2">
-        <v>-0.46320471027878901</v>
+        <v>-0.495019488692721</v>
       </c>
       <c r="C2">
-        <v>-0.49397997446261399</v>
+        <v>-0.52952634417839095</v>
       </c>
       <c r="D2">
-        <v>-0.47859234237070097</v>
+        <v>-0.51227291643555595</v>
       </c>
       <c r="E2">
-        <v>0.16567566041965101</v>
+        <v>0.21011447668427599</v>
       </c>
       <c r="F2">
-        <v>0.20808579560262999</v>
+        <v>0.25766696549949403</v>
       </c>
       <c r="G2">
-        <v>0.18613157987552201</v>
+        <v>0.233050736541348</v>
       </c>
       <c r="H2">
-        <v>-2.0804322513166499E-2</v>
+        <v>1.02324732563818E-3</v>
       </c>
       <c r="I2">
-        <v>0.68667813797333099</v>
+        <v>0.76993988193505103</v>
       </c>
       <c r="J2">
-        <v>0.45778801985753498</v>
+        <v>0.51329616376119502</v>
       </c>
       <c r="K2">
-        <v>-4.2410135182978502E-2</v>
+        <v>-4.75524888152183E-2</v>
       </c>
       <c r="L2">
-        <v>0.206935902388689</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.23202748921570901</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1002</v>
       </c>
       <c r="B3">
-        <v>-0.42609592877589603</v>
+        <v>-0.45341115828421702</v>
       </c>
       <c r="C3">
-        <v>-0.404341902516128</v>
+        <v>-0.42901939235514402</v>
       </c>
       <c r="D3">
-        <v>-0.41521891564601199</v>
+        <v>-0.44121527531968102</v>
       </c>
       <c r="E3">
-        <v>-4.9717644772119797E-2</v>
+        <v>-3.13959003002224E-2</v>
       </c>
       <c r="F3">
-        <v>-1.2068930885554699E-2</v>
+        <v>1.08178308815824E-2</v>
       </c>
       <c r="G3">
-        <v>5.6846695664439902E-2</v>
+        <v>8.8089679852902905E-2</v>
       </c>
       <c r="H3">
-        <v>4.5164192308877298E-2</v>
+        <v>7.4990638603628507E-2</v>
       </c>
       <c r="I3">
-        <v>0.40314998476045699</v>
+        <v>0.45203310620126302</v>
       </c>
       <c r="J3">
-        <v>0.46038310795489001</v>
+        <v>0.51620591392330895</v>
       </c>
       <c r="K3">
-        <v>-3.7648713886565099E-2</v>
+        <v>-4.2213731181804798E-2</v>
       </c>
       <c r="L3">
-        <v>1.16825033555625E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1.30990412492744E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1003</v>
       </c>
       <c r="B4">
-        <v>-0.35846391373209802</v>
+        <v>-0.377578562489717</v>
       </c>
       <c r="C4">
-        <v>-0.43994556289977199</v>
+        <v>-0.46894010128166402</v>
       </c>
       <c r="D4">
-        <v>-0.399204738315935</v>
+        <v>-0.42325933188569098</v>
       </c>
       <c r="E4">
-        <v>0.487889343529816</v>
+        <v>0.51828501374570302</v>
       </c>
       <c r="F4">
-        <v>0.45251885919854601</v>
+        <v>0.53173825700953703</v>
       </c>
       <c r="G4">
-        <v>0.49529847980914898</v>
+        <v>0.53725143170213396</v>
       </c>
       <c r="H4">
-        <v>2.29663400197606E-3</v>
+        <v>2.69252627652889E-2</v>
       </c>
       <c r="I4">
-        <v>0.85172359751448101</v>
+        <v>0.95499758889522801</v>
       </c>
       <c r="J4">
-        <v>0.401501372317911</v>
+        <v>0.45018459465097999</v>
       </c>
       <c r="K4">
-        <v>3.5370484331270699E-2</v>
+        <v>-1.34532432638349E-2</v>
       </c>
       <c r="L4">
-        <v>0.49300184580717299</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.51032616893684501</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1007</v>
       </c>
       <c r="B5">
-        <v>-0.33036185897297698</v>
+        <v>-0.34606905093423201</v>
       </c>
       <c r="C5">
-        <v>8.46914751279257E-2</v>
+        <v>0.11931072072643099</v>
       </c>
       <c r="D5">
-        <v>-0.122835191922526</v>
+        <v>-0.1133791651039</v>
       </c>
       <c r="E5">
-        <v>0.15386914622220799</v>
+        <v>0.196876387913788</v>
       </c>
       <c r="F5">
-        <v>8.6692399978042803E-2</v>
+        <v>0.12155426359996301</v>
       </c>
       <c r="G5">
-        <v>4.7699710075355603E-2</v>
+        <v>7.7833595357033006E-2</v>
       </c>
       <c r="H5">
-        <v>-8.8101564642459093E-2</v>
+        <v>-7.44339833538019E-2</v>
       </c>
       <c r="I5">
-        <v>0.20952759190056899</v>
+        <v>0.23493342870386399</v>
       </c>
       <c r="J5">
-        <v>3.4733627280066702E-2</v>
+        <v>3.8945181750098597E-2</v>
       </c>
       <c r="K5">
-        <v>6.7176746244164795E-2</v>
+        <v>7.5322124313825095E-2</v>
       </c>
       <c r="L5">
-        <v>0.135801274717815</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.15226757871083499</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>1008</v>
       </c>
       <c r="B6">
-        <v>-0.49545980691750102</v>
+        <v>-0.53118561067107695</v>
       </c>
       <c r="C6">
-        <v>-0.56173329290066798</v>
+        <v>-0.60549495176049095</v>
       </c>
       <c r="D6">
-        <v>-0.528596549909084</v>
+        <v>-0.56834028121578395</v>
       </c>
       <c r="E6">
-        <v>-0.13220712953730401</v>
+        <v>-0.12388747772023299</v>
       </c>
       <c r="F6">
-        <v>-0.20553552937342101</v>
+        <v>-0.20610716171794699</v>
       </c>
       <c r="G6">
-        <v>-2.5049932371015899E-2</v>
+        <v>-3.7371552151250998E-3</v>
       </c>
       <c r="H6">
-        <v>-0.23892561734148399</v>
+        <v>-0.243545896062698</v>
       </c>
       <c r="I6">
-        <v>0.32306102053566399</v>
+        <v>0.36223311949783699</v>
       </c>
       <c r="J6">
-        <v>0.28967093256760001</v>
+        <v>0.32479438515308601</v>
       </c>
       <c r="K6">
-        <v>7.33283998361169E-2</v>
+        <v>8.2219683997713899E-2</v>
       </c>
       <c r="L6">
-        <v>0.21387568497046799</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.239808740847573</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>1009</v>
       </c>
       <c r="B7">
-        <v>1.4536930573413201E-2</v>
+        <v>4.0649731298504702E-2</v>
       </c>
       <c r="C7">
-        <v>-0.24800358337470599</v>
+        <v>-0.25372459217854898</v>
       </c>
       <c r="D7">
-        <v>-0.116733326400646</v>
+        <v>-0.10653743044002199</v>
       </c>
       <c r="E7">
-        <v>0.42728806444872103</v>
+        <v>0.50344815418473798</v>
       </c>
       <c r="F7">
-        <v>0.28407462050632198</v>
+        <v>0.342869658929359</v>
       </c>
       <c r="G7">
-        <v>0.50382225704899397</v>
+        <v>0.58926234274848899</v>
       </c>
       <c r="H7">
-        <v>0.382671906307822</v>
+        <v>0.45342215563935601</v>
       </c>
       <c r="I7">
-        <v>0.40080794690696803</v>
+        <v>0.44940708936938101</v>
       </c>
       <c r="J7">
-        <v>0.49940523270846898</v>
+        <v>0.55995958607937801</v>
       </c>
       <c r="K7">
-        <v>0.14321344394239899</v>
+        <v>0.16057849525537901</v>
       </c>
       <c r="L7">
-        <v>0.121150350741172</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.13584018710913301</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>1010</v>
       </c>
       <c r="B8">
-        <v>-5.6074175916957E-2</v>
+        <v>-3.8523179542892097E-2</v>
       </c>
       <c r="C8">
-        <v>-9.9467966061982799E-2</v>
+        <v>-0.121350292111154</v>
       </c>
       <c r="D8">
-        <v>-7.7771070989469906E-2</v>
+        <v>-7.9936735827022806E-2</v>
       </c>
       <c r="E8">
-        <v>1.79205003748577</v>
+        <v>1.88939434354585</v>
       </c>
       <c r="F8">
-        <v>2.1694322705021198</v>
+        <v>2.0518735232638701</v>
       </c>
       <c r="G8">
-        <v>1.6735601043173101</v>
+        <v>1.8078147275735801</v>
       </c>
       <c r="H8">
-        <v>1.4916550942622999</v>
+        <v>1.5960851664248299</v>
       </c>
       <c r="I8">
-        <v>2.24720334149159</v>
+        <v>2.1318102590908898</v>
       </c>
       <c r="J8">
-        <v>1.56942616525177</v>
+        <v>1.6760219022518501</v>
       </c>
       <c r="K8">
-        <v>-0.37738223301634999</v>
+        <v>-0.16247917971801301</v>
       </c>
       <c r="L8">
-        <v>0.181905010055008</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.21172956114875199</v>
+      </c>
+      <c r="M8" s="1"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>1011</v>
       </c>
       <c r="B9">
-        <v>-0.53896004989707402</v>
+        <v>-0.57996038605957201</v>
       </c>
       <c r="C9">
-        <v>-0.50199065912693197</v>
+        <v>-0.53850834792015501</v>
       </c>
       <c r="D9">
-        <v>-0.520475354512003</v>
+        <v>-0.55923436698986395</v>
       </c>
       <c r="E9">
-        <v>3.9040006549139701E-2</v>
+        <v>-8.1991970686914901E-3</v>
       </c>
       <c r="F9">
-        <v>1.7667303482068401E-2</v>
+        <v>-5.46460733467629E-2</v>
       </c>
       <c r="G9">
-        <v>-9.7098899426889401E-2</v>
+        <v>-8.1991970686914901E-3</v>
       </c>
       <c r="H9">
-        <v>-0.15558721788920701</v>
+        <v>-5.46460733467629E-2</v>
       </c>
       <c r="I9">
-        <v>0.53814265799407202</v>
+        <v>0.50458829364310098</v>
       </c>
       <c r="J9">
-        <v>0.36488813662279601</v>
+        <v>0.50458829364310098</v>
       </c>
       <c r="K9">
-        <v>2.13727030670714E-2</v>
+        <v>4.6446876278071397E-2</v>
       </c>
       <c r="L9">
-        <v>5.8488318462317702E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+        <v>4.6446876278071397E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>1014</v>
       </c>
       <c r="B10">
-        <v>-0.36662559775262499</v>
+        <v>-0.38672987470376702</v>
       </c>
       <c r="C10">
-        <v>-0.130953488742415</v>
+        <v>-0.12248182929161899</v>
       </c>
       <c r="D10">
-        <v>-0.24878954324752001</v>
+        <v>-0.25460585199769298</v>
       </c>
       <c r="E10">
-        <v>0.327533788171331</v>
+        <v>0.33514923552815401</v>
       </c>
       <c r="F10">
-        <v>7.1771940750266994E-2</v>
+        <v>0.104824654805141</v>
       </c>
       <c r="G10">
-        <v>0.29719982302549203</v>
+        <v>0.30732814933554098</v>
       </c>
       <c r="H10">
-        <v>0.29509909147373198</v>
+        <v>0.35523087942794102</v>
       </c>
       <c r="I10">
-        <v>0.320561483997787</v>
+        <v>0.359430506802834</v>
       </c>
       <c r="J10">
-        <v>0.54388863472125204</v>
+        <v>0.60983673142563399</v>
       </c>
       <c r="K10">
-        <v>0.255761847421064</v>
+        <v>0.23032458072301301</v>
       </c>
       <c r="L10">
-        <v>2.1007315517601001E-3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+        <v>-4.79027300924008E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>1015</v>
       </c>
       <c r="B11">
-        <v>-0.50157451950411602</v>
+        <v>-0.53804175014407696</v>
       </c>
       <c r="C11">
-        <v>-0.48143060361971401</v>
+        <v>-0.515455325209214</v>
       </c>
       <c r="D11">
-        <v>-0.49150256156191502</v>
+        <v>-0.52674853767664598</v>
       </c>
       <c r="E11">
-        <v>0.119524265715968</v>
+        <v>0.158367089627268</v>
       </c>
       <c r="F11">
-        <v>8.9724162946170999E-2</v>
+        <v>0.124953636745328</v>
       </c>
       <c r="G11">
-        <v>-9.8017596436472398E-2</v>
+        <v>-8.5552363168950804E-2</v>
       </c>
       <c r="H11">
-        <v>-0.11815996075404001</v>
+        <v>-0.108137048404937</v>
       </c>
       <c r="I11">
-        <v>0.58122672450808599</v>
+        <v>0.65170217442197398</v>
       </c>
       <c r="J11">
-        <v>0.37334260080787501</v>
+        <v>0.41861148927170899</v>
       </c>
       <c r="K11">
-        <v>2.9800102769797401E-2</v>
+        <v>3.3413452881939899E-2</v>
       </c>
       <c r="L11">
-        <v>2.0142364317567302E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+        <v>2.2584685235985901E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>1016</v>
       </c>
       <c r="B12">
-        <v>-0.37166110243182399</v>
+        <v>-0.39237594913629298</v>
       </c>
       <c r="C12">
-        <v>-0.37469320936817502</v>
+        <v>-0.39577570795703898</v>
       </c>
       <c r="D12">
-        <v>-0.3731771559</v>
+        <v>-0.39407582854666601</v>
       </c>
       <c r="E12">
-        <v>1.75113022986618E-2</v>
+        <v>4.3984754343985397E-2</v>
       </c>
       <c r="F12">
-        <v>0.128030151854962</v>
+        <v>0.16790433947905301</v>
       </c>
       <c r="G12">
-        <v>0.19195287140213699</v>
+        <v>0.23957787678778</v>
       </c>
       <c r="H12">
-        <v>7.6058372128235303E-3</v>
+        <v>3.2878222481457803E-2</v>
       </c>
       <c r="I12">
-        <v>0.50120730775496203</v>
+        <v>0.56198016802571904</v>
       </c>
       <c r="J12">
-        <v>0.38078299311282299</v>
+        <v>0.426954051028124</v>
       </c>
       <c r="K12">
-        <v>-0.11051884955629999</v>
+        <v>-0.123919585135067</v>
       </c>
       <c r="L12">
-        <v>0.184347034189313</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.20669965430632201</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>1017</v>
       </c>
       <c r="B13">
-        <v>-0.59021693301461098</v>
+        <v>-0.63743231701743097</v>
       </c>
       <c r="C13">
-        <v>-0.53055734738182503</v>
+        <v>-0.57053883114940596</v>
       </c>
       <c r="D13">
-        <v>-0.560387140198218</v>
+        <v>-0.60398557408341802</v>
       </c>
       <c r="E13">
-        <v>-1.41168482433284E-2</v>
+        <v>8.5215975206211908E-3</v>
       </c>
       <c r="F13">
-        <v>-4.4981551653115397E-2</v>
+        <v>-2.6085541960226399E-2</v>
       </c>
       <c r="G13">
-        <v>-1.6023662939371901E-2</v>
+        <v>6.3835759341517801E-3</v>
       </c>
       <c r="H13">
-        <v>5.9895510547354897E-2</v>
+        <v>3.8452888846284498E-2</v>
       </c>
       <c r="I13">
-        <v>0.51540558854510199</v>
+        <v>0.57790003212319196</v>
       </c>
       <c r="J13">
-        <v>0.62028265074557298</v>
+        <v>0.64243846292970297</v>
       </c>
       <c r="K13">
-        <v>3.0864703409787E-2</v>
+        <v>3.46071394808476E-2</v>
       </c>
       <c r="L13">
-        <v>-7.5919173486726804E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+        <v>-3.2069312912132698E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>1018</v>
       </c>
       <c r="B14">
-        <v>-0.41775985977264302</v>
+        <v>-0.44406431639536598</v>
       </c>
       <c r="C14">
-        <v>-7.0944423891615094E-2</v>
+        <v>-5.51964888224689E-2</v>
       </c>
       <c r="D14">
-        <v>-0.244352141832129</v>
+        <v>-0.249630402608918</v>
       </c>
       <c r="E14">
-        <v>0.29777672945759298</v>
+        <v>0.35823318889310501</v>
       </c>
       <c r="F14">
-        <v>0.18318194453171199</v>
+        <v>0.22974344923631099</v>
       </c>
       <c r="G14">
-        <v>0.468231838730573</v>
+        <v>0.50497187063835303</v>
       </c>
       <c r="H14">
-        <v>0.206730220505457</v>
+        <v>0.25614702293462499</v>
       </c>
       <c r="I14">
-        <v>0.42753408636384099</v>
+        <v>0.47937385184522902</v>
       </c>
       <c r="J14">
-        <v>0.45108236233758597</v>
+        <v>0.50577742554354199</v>
       </c>
       <c r="K14">
-        <v>0.114594784925881</v>
+        <v>0.128489739656794</v>
       </c>
       <c r="L14">
-        <v>0.26150161822511703</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.24882484770372801</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>1019</v>
       </c>
       <c r="B15">
-        <v>-0.48267251248203102</v>
+        <v>-0.51684781917392397</v>
       </c>
       <c r="C15">
-        <v>-0.38670946744297802</v>
+        <v>-0.40924897266693699</v>
       </c>
       <c r="D15">
-        <v>-0.43469098996250399</v>
+        <v>-0.46304839592043101</v>
       </c>
       <c r="E15">
-        <v>-3.2206936179167298E-2</v>
+        <v>-1.1761966785973001E-2</v>
       </c>
       <c r="F15">
-        <v>6.4485088803930807E-2</v>
+        <v>4.3181086398638401E-2</v>
       </c>
       <c r="G15">
-        <v>0.126754834917987</v>
+        <v>0.16647438661236799</v>
       </c>
       <c r="H15">
-        <v>8.2091870411616502E-4</v>
+        <v>2.5270612647028901E-2</v>
       </c>
       <c r="I15">
-        <v>0.49917607876643499</v>
+        <v>0.50622948231906895</v>
       </c>
       <c r="J15">
-        <v>0.43551190866661998</v>
+        <v>0.48831900856746002</v>
       </c>
       <c r="K15">
-        <v>-9.6692024983098201E-2</v>
+        <v>-5.4943053184611401E-2</v>
       </c>
       <c r="L15">
-        <v>0.12593391621387101</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.14120377396533901</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>1020</v>
       </c>
       <c r="B16">
-        <v>-0.37341970723031598</v>
+        <v>-0.394347789939201</v>
       </c>
       <c r="C16">
-        <v>-0.35702275355780499</v>
+        <v>-0.37596265740539497</v>
       </c>
       <c r="D16">
-        <v>-0.36522123039406101</v>
+        <v>-0.38515522367229799</v>
       </c>
       <c r="E16">
-        <v>0.18357935536765299</v>
+        <v>0.23018904730501799</v>
       </c>
       <c r="F16">
-        <v>3.5254325741250099E-2</v>
+        <v>6.3879171566698797E-2</v>
       </c>
       <c r="G16">
-        <v>0.422337037115322</v>
+        <v>0.49789680022466398</v>
       </c>
       <c r="H16">
-        <v>0.213112804602415</v>
+        <v>0.21379963763756801</v>
       </c>
       <c r="I16">
-        <v>0.40047555613531099</v>
+        <v>0.44903439523899702</v>
       </c>
       <c r="J16">
-        <v>0.57833403499647595</v>
+        <v>0.59895486130986497</v>
       </c>
       <c r="K16">
-        <v>0.14832502962640301</v>
+        <v>0.16630987573832001</v>
       </c>
       <c r="L16">
-        <v>0.209224232512907</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.284097162587096</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>1022</v>
       </c>
       <c r="B17">
-        <v>-0.52351387448099196</v>
+        <v>-0.56264131644231796</v>
       </c>
       <c r="C17">
-        <v>-0.32393564830342497</v>
+        <v>-0.33886364331952701</v>
       </c>
       <c r="D17">
-        <v>-0.42372476139220899</v>
+        <v>-0.45075247988092199</v>
       </c>
       <c r="E17">
-        <v>0.109769324656001</v>
+        <v>0.147429333271485</v>
       </c>
       <c r="F17">
-        <v>7.1861750145867903E-2</v>
+        <v>0.104925353854116</v>
       </c>
       <c r="G17">
-        <v>0.25811872528390201</v>
+        <v>0.31376653506691798</v>
       </c>
       <c r="H17">
-        <v>0.296491094584515</v>
+        <v>0.30684981861649402</v>
       </c>
       <c r="I17">
-        <v>0.49558651153807698</v>
+        <v>0.55567783373503798</v>
       </c>
       <c r="J17">
-        <v>0.720215855976724</v>
+        <v>0.757602298497416</v>
       </c>
       <c r="K17">
-        <v>3.7907574510132699E-2</v>
+        <v>4.2503979417369102E-2</v>
       </c>
       <c r="L17">
-        <v>-3.8372369300613197E-2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+        <v>6.9167164504243504E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>1023</v>
       </c>
       <c r="B18">
-        <v>-0.60510229062056797</v>
+        <v>-0.62246169675462604</v>
       </c>
       <c r="C18">
-        <v>-0.55784618678279096</v>
+        <v>-0.57229203250931904</v>
       </c>
       <c r="D18">
-        <v>-0.58147423870168002</v>
+        <v>-0.59737686463197304</v>
       </c>
       <c r="E18">
-        <v>-0.14118969155460101</v>
+        <v>-0.12994671045350101</v>
       </c>
       <c r="F18">
-        <v>-0.18459004602793</v>
+        <v>-0.176022900304633</v>
       </c>
       <c r="G18">
-        <v>-0.19800962918369799</v>
+        <v>-0.19026986369264401</v>
       </c>
       <c r="H18">
-        <v>-0.254228223507731</v>
+        <v>-0.24995459799198599</v>
       </c>
       <c r="I18">
-        <v>0.39688419267375002</v>
+        <v>0.42135396432734001</v>
       </c>
       <c r="J18">
-        <v>0.32724601519394902</v>
+        <v>0.34742226663998599</v>
       </c>
       <c r="K18">
-        <v>4.3400354473328899E-2</v>
+        <v>4.6076189851131898E-2</v>
       </c>
       <c r="L18">
-        <v>5.6218594324032999E-2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+        <v>5.9684734299342297E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>1024</v>
       </c>
       <c r="B19">
-        <v>-0.499366993427031</v>
+        <v>-0.41889648528856999</v>
       </c>
       <c r="C19">
-        <v>-0.41335895497129999</v>
+        <v>-0.51020732264694002</v>
       </c>
       <c r="D19">
-        <v>-0.45636297419916599</v>
+        <v>-0.46455190396775498</v>
       </c>
       <c r="E19">
-        <v>0.133657742339266</v>
+        <v>-3.6984757433160598E-2</v>
       </c>
       <c r="F19">
-        <v>3.0415459891412599E-2</v>
+        <v>-0.10848009468522</v>
       </c>
       <c r="G19">
-        <v>-5.3626424568960197E-2</v>
+        <v>0.161846356627844</v>
       </c>
       <c r="H19">
-        <v>-0.12096973116516201</v>
+        <v>5.2238703315822803E-2</v>
       </c>
       <c r="I19">
-        <v>0.48677843409057803</v>
+        <v>0.35607180928253501</v>
       </c>
       <c r="J19">
-        <v>0.33539324303400397</v>
+        <v>0.51679060728357795</v>
       </c>
       <c r="K19">
-        <v>0.103242282447853</v>
+        <v>7.1495337252059102E-2</v>
       </c>
       <c r="L19">
-        <v>6.7343306596201497E-2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.10960765331202101</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>1025</v>
       </c>
       <c r="B20">
-        <v>-0.36363693170441103</v>
+        <v>-0.43358204422674501</v>
       </c>
       <c r="C20">
-        <v>-0.42719166261520503</v>
+        <v>-0.36610886611749899</v>
       </c>
       <c r="D20">
-        <v>-0.39541429715980803</v>
+        <v>-0.399845455172122</v>
       </c>
       <c r="E20">
-        <v>0.32474149702219401</v>
+        <v>0.51606046283837403</v>
       </c>
       <c r="F20">
-        <v>0.24592010786842899</v>
+        <v>0.52648910546640804</v>
       </c>
       <c r="G20">
-        <v>0.46730116682074402</v>
+        <v>0.36471132086790198</v>
       </c>
       <c r="H20">
-        <v>0.47712417493393</v>
+        <v>0.28103022344251799</v>
       </c>
       <c r="I20">
-        <v>0.64133440502823702</v>
+        <v>0.92633456063853004</v>
       </c>
       <c r="J20">
-        <v>0.87253847209373803</v>
+        <v>0.68087567861464005</v>
       </c>
       <c r="K20">
-        <v>7.8821389153765603E-2</v>
+        <v>-1.04286426280337E-2</v>
       </c>
       <c r="L20">
-        <v>-9.8230081131854292E-3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+        <v>8.3681097425384404E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21">
+        <v>3001</v>
+      </c>
+      <c r="B21">
+        <v>-0.50233588406563601</v>
+      </c>
+      <c r="C21">
+        <v>-0.48374794135745403</v>
+      </c>
+      <c r="D21">
+        <v>-0.49304191271154502</v>
+      </c>
+      <c r="E21">
+        <v>-0.111753759946283</v>
+      </c>
+      <c r="F21">
+        <v>-4.3996210234185901E-2</v>
+      </c>
+      <c r="G21">
+        <v>-6.3070181662926397E-2</v>
+      </c>
+      <c r="H21">
+        <v>-8.6599351112341905E-2</v>
+      </c>
+      <c r="I21">
+        <v>0.44904570247735898</v>
+      </c>
+      <c r="J21">
+        <v>0.406442561599203</v>
+      </c>
+      <c r="K21">
+        <v>-6.7757549712097506E-2</v>
+      </c>
+      <c r="L21">
+        <v>2.3529169449415601E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>3002</v>
+      </c>
+      <c r="B22">
+        <v>-0.53204081715484597</v>
+      </c>
+      <c r="C22">
+        <v>-0.44397001801660801</v>
+      </c>
+      <c r="D22">
+        <v>-0.48800541758572702</v>
+      </c>
+      <c r="E22">
+        <v>0.49614771183932299</v>
+      </c>
+      <c r="F22">
+        <v>0.56440951349455704</v>
+      </c>
+      <c r="G22">
+        <v>0.94428107990299004</v>
+      </c>
+      <c r="H22">
+        <v>0.45270274254446102</v>
+      </c>
+      <c r="I22">
+        <v>1.0524149310802799</v>
+      </c>
+      <c r="J22">
+        <v>0.94070816013018799</v>
+      </c>
+      <c r="K22">
+        <v>-6.8261801655233906E-2</v>
+      </c>
+      <c r="L22">
+        <v>0.49157833735852902</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>3003</v>
+      </c>
+      <c r="B23">
+        <v>-0.54915269157082602</v>
+      </c>
+      <c r="C23">
+        <v>-8.2945202114839106E-2</v>
+      </c>
+      <c r="D23">
+        <v>-0.31604894684283302</v>
+      </c>
+      <c r="E23">
+        <v>-2.8806246768789002E-3</v>
+      </c>
+      <c r="F23">
+        <v>7.2957423508679703E-2</v>
+      </c>
+      <c r="G23">
+        <v>2.4393630164118801E-2</v>
+      </c>
+      <c r="H23">
+        <v>-0.124101926232565</v>
+      </c>
+      <c r="I23">
+        <v>0.38900637035151198</v>
+      </c>
+      <c r="J23">
+        <v>0.191947020610267</v>
+      </c>
+      <c r="K23">
+        <v>-7.5838048185558601E-2</v>
+      </c>
+      <c r="L23">
+        <v>0.14849555639668399</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>3004</v>
+      </c>
+      <c r="B24">
+        <v>-0.58733405996949795</v>
+      </c>
+      <c r="C24">
+        <v>-0.52413625695573196</v>
+      </c>
+      <c r="D24">
+        <v>-0.55573515846261501</v>
+      </c>
+      <c r="E24">
+        <v>-0.14827098696538099</v>
+      </c>
+      <c r="F24">
+        <v>-0.313293322579838</v>
+      </c>
+      <c r="G24">
+        <v>-0.12823271034929301</v>
+      </c>
+      <c r="H24">
+        <v>-0.24492989345406399</v>
+      </c>
+      <c r="I24">
+        <v>0.24244183588277701</v>
+      </c>
+      <c r="J24">
+        <v>0.31080526500855099</v>
+      </c>
+      <c r="K24">
+        <v>0.16502233561445701</v>
+      </c>
+      <c r="L24">
+        <v>0.11669718310477099</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>3006</v>
+      </c>
+      <c r="B25">
+        <v>-0.58517037148598905</v>
+      </c>
+      <c r="C25">
+        <v>-0.60219173857289698</v>
+      </c>
+      <c r="D25">
+        <v>-0.59368105502944302</v>
+      </c>
+      <c r="E25">
+        <v>-0.28046822756087503</v>
+      </c>
+      <c r="F25">
+        <v>-0.40821784475455303</v>
+      </c>
+      <c r="G25">
+        <v>-4.5585177784692101E-2</v>
+      </c>
+      <c r="H25">
+        <v>-0.13626249663920301</v>
+      </c>
+      <c r="I25">
+        <v>0.18546321027488899</v>
+      </c>
+      <c r="J25">
+        <v>0.45741855839023898</v>
+      </c>
+      <c r="K25">
+        <v>0.127749617193678</v>
+      </c>
+      <c r="L25">
+        <v>9.0677318854511205E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>3007</v>
+      </c>
+      <c r="B26">
+        <v>-0.548612164343665</v>
+      </c>
+      <c r="C26">
+        <v>-0.55972555516664702</v>
+      </c>
+      <c r="D26">
+        <v>-0.55416885975515595</v>
+      </c>
+      <c r="E26">
+        <v>0.17356033003100499</v>
+      </c>
+      <c r="F26">
+        <v>0.194522635222244</v>
+      </c>
+      <c r="G26">
+        <v>1.8799966888683101E-2</v>
+      </c>
+      <c r="H26">
+        <v>-0.10278212025936501</v>
+      </c>
+      <c r="I26">
+        <v>0.74869149497739995</v>
+      </c>
+      <c r="J26">
+        <v>0.45138673949579</v>
+      </c>
+      <c r="K26">
+        <v>-2.0962305191239001E-2</v>
+      </c>
+      <c r="L26">
+        <v>0.121582087148049</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>3008</v>
+      </c>
+      <c r="B27">
+        <v>-0.60149099967452602</v>
+      </c>
+      <c r="C27">
+        <v>-0.61997044599074702</v>
+      </c>
+      <c r="D27">
+        <v>-0.61073072283263696</v>
+      </c>
+      <c r="E27">
+        <v>-0.14527830502088501</v>
+      </c>
+      <c r="F27">
+        <v>-9.4077661064691301E-2</v>
+      </c>
+      <c r="G27">
+        <v>-0.244478327554079</v>
+      </c>
+      <c r="H27">
+        <v>-0.19805610363005399</v>
+      </c>
+      <c r="I27">
+        <v>0.51665306176794501</v>
+      </c>
+      <c r="J27">
+        <v>0.41267461920258203</v>
+      </c>
+      <c r="K27">
+        <v>-5.12006439561941E-2</v>
+      </c>
+      <c r="L27">
+        <v>-4.6422223924025001E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>3009</v>
+      </c>
+      <c r="B28">
+        <v>-0.42369293568793598</v>
+      </c>
+      <c r="C28">
+        <v>-0.36117721030939298</v>
+      </c>
+      <c r="D28">
+        <v>-0.39243507299866398</v>
+      </c>
+      <c r="E28">
+        <v>0.42449208516480602</v>
+      </c>
+      <c r="F28">
+        <v>0.353886275467308</v>
+      </c>
+      <c r="G28">
+        <v>0.47273674050925502</v>
+      </c>
+      <c r="H28">
+        <v>9.1856253878850297E-2</v>
+      </c>
+      <c r="I28">
+        <v>0.74632134846597298</v>
+      </c>
+      <c r="J28">
+        <v>0.48429132687751503</v>
+      </c>
+      <c r="K28">
+        <v>7.0605809697497607E-2</v>
+      </c>
+      <c r="L28">
+        <v>0.38088048663040402</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>3010</v>
+      </c>
+      <c r="B29">
+        <v>-0.44406326334545798</v>
+      </c>
+      <c r="C29">
+        <v>-0.13720656034409101</v>
+      </c>
+      <c r="D29">
+        <v>-0.29063491184477502</v>
+      </c>
+      <c r="E29">
+        <v>0.81225589316235303</v>
+      </c>
+      <c r="F29">
+        <v>0.76399325371284299</v>
+      </c>
+      <c r="G29">
+        <v>0.54867267149188403</v>
+      </c>
+      <c r="H29">
+        <v>0.51650275854985295</v>
+      </c>
+      <c r="I29">
+        <v>1.05462816555762</v>
+      </c>
+      <c r="J29">
+        <v>0.80713767039462803</v>
+      </c>
+      <c r="K29">
+        <v>4.82626394495098E-2</v>
+      </c>
+      <c r="L29">
+        <v>3.21699129420316E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A30">
         <v>1026</v>
       </c>
-      <c r="B21">
-        <v>-0.33139049469166498</v>
-      </c>
-      <c r="C21">
-        <v>-0.40332059696136002</v>
-      </c>
-      <c r="D21">
-        <v>-0.36735554582651198</v>
-      </c>
-      <c r="E21">
-        <v>0.27795073962352101</v>
-      </c>
-      <c r="F21">
-        <v>7.6211217480124896E-2</v>
-      </c>
-      <c r="G21">
-        <v>0.37753611028026002</v>
-      </c>
-      <c r="H21">
-        <v>8.3563811774643795E-2</v>
-      </c>
-      <c r="I21">
-        <v>0.44356676330663702</v>
-      </c>
-      <c r="J21">
-        <v>0.45091935760115598</v>
-      </c>
-      <c r="K21">
-        <v>0.20173952214339599</v>
-      </c>
-      <c r="L21">
-        <v>0.29397229850561601</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
+      <c r="B30">
+        <v>-0.33187428504431998</v>
+      </c>
+      <c r="C30">
+        <v>-0.40823921543276998</v>
+      </c>
+      <c r="D30">
+        <v>-0.37005675023854501</v>
+      </c>
+      <c r="E30">
+        <v>0.315035693851897</v>
+      </c>
+      <c r="F30">
+        <v>0.100857984117565</v>
+      </c>
+      <c r="G30">
+        <v>0.420760969611915</v>
+      </c>
+      <c r="H30">
+        <v>0.10866390033008801</v>
+      </c>
+      <c r="I30">
+        <v>0.47091473435610998</v>
+      </c>
+      <c r="J30">
+        <v>0.478720650568633</v>
+      </c>
+      <c r="K30">
+        <v>0.21417770973433201</v>
+      </c>
+      <c r="L30">
+        <v>0.31209706928182701</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>1029</v>
+      </c>
+      <c r="B31">
+        <v>-0.31411383707813001</v>
+      </c>
+      <c r="C31">
+        <v>-0.313798497094262</v>
+      </c>
+      <c r="D31">
+        <v>-0.313956167086196</v>
+      </c>
+      <c r="E31">
+        <v>0.39582023657600601</v>
+      </c>
+      <c r="F31">
+        <v>0.429717518231234</v>
+      </c>
+      <c r="G31">
+        <v>0.31275145498367801</v>
+      </c>
+      <c r="H31">
+        <v>0.122295683353039</v>
+      </c>
+      <c r="I31">
+        <v>0.74367368531743006</v>
+      </c>
+      <c r="J31">
+        <v>0.43625185043923498</v>
+      </c>
+      <c r="K31">
+        <v>-3.3897281655228199E-2</v>
+      </c>
+      <c r="L31">
+        <v>0.19045577163063801</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>1030</v>
+      </c>
+      <c r="B32">
+        <v>-0.48740232210995699</v>
+      </c>
+      <c r="C32">
+        <v>-0.46573930847401501</v>
+      </c>
+      <c r="D32">
+        <v>-0.47657081529198603</v>
+      </c>
+      <c r="E32">
+        <v>-7.6024772884092304E-2</v>
+      </c>
+      <c r="F32">
+        <v>-4.2344109424048301E-2</v>
+      </c>
+      <c r="G32">
+        <v>0.17854384700558501</v>
+      </c>
+      <c r="H32">
+        <v>0.109975523501929</v>
+      </c>
+      <c r="I32">
+        <v>0.43422670586793799</v>
+      </c>
+      <c r="J32">
+        <v>0.58654633879391505</v>
+      </c>
+      <c r="K32">
+        <v>-3.3680663460044002E-2</v>
+      </c>
+      <c r="L32">
+        <v>6.8568323503655604E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A35" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B23">
-        <f>AVERAGE(B2:B21)</f>
-        <v>-0.40405121655153559</v>
-      </c>
-      <c r="C23">
-        <f t="shared" ref="C23:L23" si="0">AVERAGE(C2:C21)</f>
-        <v>-0.35613679049267422</v>
-      </c>
-      <c r="D23">
+      <c r="B35">
+        <f>AVERAGE(B2:B32)</f>
+        <v>-0.45276782890738798</v>
+      </c>
+      <c r="C35">
+        <f t="shared" ref="C35:L35" si="0">AVERAGE(C2:C32)</f>
+        <v>-0.38910428799948182</v>
+      </c>
+      <c r="D35">
         <f t="shared" si="0"/>
-        <v>-0.38009400352210493</v>
-      </c>
-      <c r="E23">
+        <v>-0.42093605845343501</v>
+      </c>
+      <c r="E35">
         <f t="shared" si="0"/>
-        <v>0.22442093765104873</v>
-      </c>
-      <c r="F23">
+        <v>0.2137584628777929</v>
+      </c>
+      <c r="F35">
         <f t="shared" si="0"/>
-        <v>0.18840756706719175</v>
-      </c>
-      <c r="G23">
+        <v>0.1835320961425104</v>
+      </c>
+      <c r="G35">
         <f t="shared" si="0"/>
-        <v>0.25424825447203897</v>
-      </c>
-      <c r="H23">
+        <v>0.2596153151591199</v>
+      </c>
+      <c r="H35">
         <f t="shared" si="0"/>
-        <v>0.12827273267033565</v>
-      </c>
-      <c r="I23">
+        <v>0.11267393070254589</v>
+      </c>
+      <c r="I35">
         <f t="shared" si="0"/>
-        <v>0.56850157058929673</v>
-      </c>
-      <c r="J23">
+        <v>0.60446815459594538</v>
+      </c>
+      <c r="J35">
         <f t="shared" si="0"/>
-        <v>0.50836673619244077</v>
-      </c>
-      <c r="K23">
+        <v>0.53360998915598057</v>
+      </c>
+      <c r="K35">
         <f t="shared" si="0"/>
-        <v>3.601337058385698E-2</v>
-      </c>
-      <c r="L23">
+        <v>3.0226366735282586E-2</v>
+      </c>
+      <c r="L35">
         <f t="shared" si="0"/>
-        <v>0.12597552180170329</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
+        <v>0.14694138445657398</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A36" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B24">
-        <f>STDEV(B2:B21)</f>
-        <v>0.15542303103193192</v>
-      </c>
-      <c r="C24">
-        <f t="shared" ref="C24:L24" si="1">STDEV(C2:C21)</f>
-        <v>0.17703836359265604</v>
-      </c>
-      <c r="D24">
+      <c r="B36">
+        <f>STDEV(B2:B32)</f>
+        <v>0.15016713463579556</v>
+      </c>
+      <c r="C36">
+        <f t="shared" ref="C36:L36" si="1">STDEV(C2:C32)</f>
+        <v>0.18766959721632984</v>
+      </c>
+      <c r="D36">
         <f t="shared" si="1"/>
-        <v>0.14734609765497719</v>
-      </c>
-      <c r="E24">
+        <v>0.14794053654286368</v>
+      </c>
+      <c r="E36">
         <f t="shared" si="1"/>
-        <v>0.40881085661504163</v>
-      </c>
-      <c r="F24">
+        <v>0.40472595099596459</v>
+      </c>
+      <c r="F36">
         <f t="shared" si="1"/>
-        <v>0.48949484358056849</v>
-      </c>
-      <c r="G24">
+        <v>0.43516410487644058</v>
+      </c>
+      <c r="G36">
         <f t="shared" si="1"/>
-        <v>0.40233868200323503</v>
-      </c>
-      <c r="H24">
+        <v>0.39465973121590486</v>
+      </c>
+      <c r="H36">
         <f t="shared" si="1"/>
-        <v>0.37895814007242423</v>
-      </c>
-      <c r="I24">
+        <v>0.34615585261345172</v>
+      </c>
+      <c r="I36">
         <f t="shared" si="1"/>
-        <v>0.41939574574592048</v>
-      </c>
-      <c r="J24">
+        <v>0.3626894896639179</v>
+      </c>
+      <c r="J36">
         <f t="shared" si="1"/>
-        <v>0.3026425066416728</v>
-      </c>
-      <c r="K24">
+        <v>0.27244469656002046</v>
+      </c>
+      <c r="K36">
         <f t="shared" si="1"/>
-        <v>0.13310935215950276</v>
-      </c>
-      <c r="L24">
+        <v>9.7778593542733341E-2</v>
+      </c>
+      <c r="L36">
         <f t="shared" si="1"/>
-        <v>0.13530566638668354</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
+        <v>0.14265262946809804</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A37" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B25">
-        <f>B24/(SQRT(20))</f>
-        <v>3.4753646265645907E-2</v>
-      </c>
-      <c r="C25">
-        <f t="shared" ref="C25:L25" si="2">C24/(SQRT(20))</f>
-        <v>3.9586981561850275E-2</v>
-      </c>
-      <c r="D25">
+      <c r="B37">
+        <f>B36/(SQRT(31))</f>
+        <v>2.6970813570757434E-2</v>
+      </c>
+      <c r="C37">
+        <f t="shared" ref="C37:L37" si="2">C36/(SQRT(31))</f>
+        <v>3.3706454689282114E-2</v>
+      </c>
+      <c r="D37">
         <f t="shared" si="2"/>
-        <v>3.2947589057585137E-2</v>
-      </c>
-      <c r="E25">
+        <v>2.6570904747784164E-2</v>
+      </c>
+      <c r="E37">
         <f t="shared" si="2"/>
-        <v>9.1412886533115259E-2</v>
-      </c>
-      <c r="F25">
+        <v>7.2690926666703917E-2</v>
+      </c>
+      <c r="F37">
         <f t="shared" si="2"/>
-        <v>0.10945437448817777</v>
-      </c>
-      <c r="G25">
+        <v>7.8157780487544265E-2</v>
+      </c>
+      <c r="G37">
         <f t="shared" si="2"/>
-        <v>8.9965664293690475E-2</v>
-      </c>
-      <c r="H25">
+        <v>7.0882980222838399E-2</v>
+      </c>
+      <c r="H37">
         <f t="shared" si="2"/>
-        <v>8.4737616182882766E-2</v>
-      </c>
-      <c r="I25">
+        <v>6.2171426456974779E-2</v>
+      </c>
+      <c r="I37">
         <f t="shared" si="2"/>
-        <v>9.3779739696209632E-2</v>
-      </c>
-      <c r="J25">
+        <v>6.514095533302483E-2</v>
+      </c>
+      <c r="J37">
         <f t="shared" si="2"/>
-        <v>6.7672921773171191E-2</v>
-      </c>
-      <c r="K25">
+        <v>4.8932512011255522E-2</v>
+      </c>
+      <c r="K37">
         <f t="shared" si="2"/>
-        <v>2.976415598696066E-2</v>
-      </c>
-      <c r="L25">
+        <v>1.7561553824995885E-2</v>
+      </c>
+      <c r="L37">
         <f t="shared" si="2"/>
-        <v>3.025526677815327E-2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
+        <v>2.562116860053136E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A38" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B26">
-        <f>B25*1.96</f>
-        <v>6.8117146680665971E-2</v>
-      </c>
-      <c r="C26">
-        <f t="shared" ref="C26:L26" si="3">C25*1.96</f>
-        <v>7.7590483861226536E-2</v>
-      </c>
-      <c r="D26">
+      <c r="B38">
+        <f>B37*1.96</f>
+        <v>5.2862794598684572E-2</v>
+      </c>
+      <c r="C38">
+        <f t="shared" ref="C38:L38" si="3">C37*1.96</f>
+        <v>6.6064651190992946E-2</v>
+      </c>
+      <c r="D38">
         <f t="shared" si="3"/>
-        <v>6.4577274552866867E-2</v>
-      </c>
-      <c r="E26">
+        <v>5.2078973305656959E-2</v>
+      </c>
+      <c r="E38">
         <f t="shared" si="3"/>
-        <v>0.1791692576049059</v>
-      </c>
-      <c r="F26">
+        <v>0.14247421626673967</v>
+      </c>
+      <c r="F38">
         <f t="shared" si="3"/>
-        <v>0.21453057399682843</v>
-      </c>
-      <c r="G26">
+        <v>0.15318924975558676</v>
+      </c>
+      <c r="G38">
         <f t="shared" si="3"/>
-        <v>0.17633270201563334</v>
-      </c>
-      <c r="H26">
+        <v>0.13893064123676327</v>
+      </c>
+      <c r="H38">
         <f t="shared" si="3"/>
-        <v>0.16608572771845023</v>
-      </c>
-      <c r="I26">
+        <v>0.12185599585567057</v>
+      </c>
+      <c r="I38">
         <f t="shared" si="3"/>
-        <v>0.18380828980457087</v>
-      </c>
-      <c r="J26">
+        <v>0.12767627245272867</v>
+      </c>
+      <c r="J38">
         <f t="shared" si="3"/>
-        <v>0.13263892667541552</v>
-      </c>
-      <c r="K26">
+        <v>9.5907723542060827E-2</v>
+      </c>
+      <c r="K38">
         <f t="shared" si="3"/>
-        <v>5.8337745734442892E-2</v>
-      </c>
-      <c r="L26">
+        <v>3.4420645496991933E-2</v>
+      </c>
+      <c r="L38">
         <f t="shared" si="3"/>
-        <v>5.9300322885180411E-2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
+        <v>5.0217490457041464E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A39" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B27">
-        <f>B23+B26</f>
-        <v>-0.3359340698708696</v>
-      </c>
-      <c r="C27">
-        <f t="shared" ref="C27:L27" si="4">C23+C26</f>
-        <v>-0.27854630663144769</v>
-      </c>
-      <c r="D27">
+      <c r="B39">
+        <f>B35+B38</f>
+        <v>-0.39990503430870339</v>
+      </c>
+      <c r="C39">
+        <f t="shared" ref="C39:L39" si="4">C35+C38</f>
+        <v>-0.32303963680848891</v>
+      </c>
+      <c r="D39">
         <f t="shared" si="4"/>
-        <v>-0.31551672896923805</v>
-      </c>
-      <c r="E27">
+        <v>-0.36885708514777804</v>
+      </c>
+      <c r="E39">
         <f t="shared" si="4"/>
-        <v>0.40359019525595463</v>
-      </c>
-      <c r="F27">
+        <v>0.3562326791445326</v>
+      </c>
+      <c r="F39">
         <f t="shared" si="4"/>
-        <v>0.40293814106402015</v>
-      </c>
-      <c r="G27">
+        <v>0.33672134589809716</v>
+      </c>
+      <c r="G39">
         <f t="shared" si="4"/>
-        <v>0.43058095648767231</v>
-      </c>
-      <c r="H27">
+        <v>0.39854595639588319</v>
+      </c>
+      <c r="H39">
         <f t="shared" si="4"/>
-        <v>0.29435846038878588</v>
-      </c>
-      <c r="I27">
+        <v>0.23452992655821647</v>
+      </c>
+      <c r="I39">
         <f t="shared" si="4"/>
-        <v>0.7523098603938676</v>
-      </c>
-      <c r="J27">
+        <v>0.73214442704867411</v>
+      </c>
+      <c r="J39">
         <f t="shared" si="4"/>
-        <v>0.64100566286785632</v>
-      </c>
-      <c r="K27">
+        <v>0.62951771269804135</v>
+      </c>
+      <c r="K39">
         <f t="shared" si="4"/>
-        <v>9.4351116318299871E-2</v>
-      </c>
-      <c r="L27">
+        <v>6.4647012232274523E-2</v>
+      </c>
+      <c r="L39">
         <f t="shared" si="4"/>
-        <v>0.18527584468688371</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
+        <v>0.19715887491361545</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A40" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B28">
-        <f>B23-B26</f>
-        <v>-0.47216836323220157</v>
-      </c>
-      <c r="C28">
-        <f t="shared" ref="C28:L28" si="5">C23-C26</f>
-        <v>-0.43372727435390074</v>
-      </c>
-      <c r="D28">
+      <c r="B40">
+        <f>B35-B38</f>
+        <v>-0.50563062350607257</v>
+      </c>
+      <c r="C40">
+        <f t="shared" ref="C40:L40" si="5">C35-C38</f>
+        <v>-0.45516893919047474</v>
+      </c>
+      <c r="D40">
         <f t="shared" si="5"/>
-        <v>-0.44467127807497181</v>
-      </c>
-      <c r="E28">
+        <v>-0.47301503175909199</v>
+      </c>
+      <c r="E40">
         <f t="shared" si="5"/>
-        <v>4.5251680046142828E-2</v>
-      </c>
-      <c r="F28">
+        <v>7.1284246611053231E-2</v>
+      </c>
+      <c r="F40">
         <f t="shared" si="5"/>
-        <v>-2.6123006929636677E-2</v>
-      </c>
-      <c r="G28">
+        <v>3.0342846386923639E-2</v>
+      </c>
+      <c r="G40">
         <f t="shared" si="5"/>
-        <v>7.7915552456405635E-2</v>
-      </c>
-      <c r="H28">
+        <v>0.12068467392235663</v>
+      </c>
+      <c r="H40">
         <f t="shared" si="5"/>
-        <v>-3.7812995048114584E-2</v>
-      </c>
-      <c r="I28">
+        <v>-9.1820651531246827E-3</v>
+      </c>
+      <c r="I40">
         <f t="shared" si="5"/>
-        <v>0.38469328078472587</v>
-      </c>
-      <c r="J28">
+        <v>0.47679188214321672</v>
+      </c>
+      <c r="J40">
         <f t="shared" si="5"/>
-        <v>0.37572780951702522</v>
-      </c>
-      <c r="K28">
+        <v>0.43770226561391973</v>
+      </c>
+      <c r="K40">
         <f t="shared" si="5"/>
-        <v>-2.2324375150585912E-2</v>
-      </c>
-      <c r="L28">
+        <v>-4.1942787617093476E-3</v>
+      </c>
+      <c r="L40">
         <f t="shared" si="5"/>
-        <v>6.6675198916522876E-2</v>
+        <v>9.6723893999532518E-2</v>
       </c>
     </row>
   </sheetData>

--- a/CVOE/5 Manuscript/Output/Older Healthy Output 10_14.xlsx
+++ b/CVOE/5 Manuscript/Output/Older Healthy Output 10_14.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nickm\OneDrive\Documents\GitHub\Spring-2019-Projects\CVOE\5 Manuscript\Output\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nickm.000\Documents\GitHub\Spring-2019-Projects\CVOE\5 Manuscript\Output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="59" documentId="13_ncr:1_{486A08B7-E647-4310-85EE-57383982BB92}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{E69114FD-7CED-44EF-B5A0-80500997CAD8}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9427EC0-CACB-4CE1-8B49-45CBE6664352}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="2" xr2:uid="{E0C5538E-1FAD-433E-AC4C-D2EEA76FE06A}"/>
+    <workbookView xWindow="1380" yWindow="2685" windowWidth="10155" windowHeight="9360" activeTab="2" xr2:uid="{E0C5538E-1FAD-433E-AC4C-D2EEA76FE06A}"/>
   </bookViews>
   <sheets>
     <sheet name="Errors" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -513,19 +515,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEE5C1B3-1D15-409E-BB0E-BB269A9102CD}">
-  <dimension ref="A1:L40"/>
+  <dimension ref="A1:L45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B40" sqref="B40"/>
+      <pane ySplit="1" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B40" sqref="B40:B45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="9" max="9" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -563,7 +565,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1001</v>
       </c>
@@ -601,7 +603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1002</v>
       </c>
@@ -639,7 +641,7 @@
         <v>1.63934426229508E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1003</v>
       </c>
@@ -677,7 +679,7 @@
         <v>1.6666666666666701E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1007</v>
       </c>
@@ -715,7 +717,7 @@
         <v>-3.6121144762433999E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1008</v>
       </c>
@@ -753,7 +755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1009</v>
       </c>
@@ -791,7 +793,7 @@
         <v>3.2231175326479698E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1010</v>
       </c>
@@ -829,7 +831,7 @@
         <v>4.8780487804878099E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1011</v>
       </c>
@@ -867,7 +869,7 @@
         <v>8.1232492997198608E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1014</v>
       </c>
@@ -905,7 +907,7 @@
         <v>-9.0744101633399897E-4</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>1015</v>
       </c>
@@ -943,7 +945,7 @@
         <v>6.5573770491803199E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>1016</v>
       </c>
@@ -981,7 +983,7 @@
         <v>-7.2357263990955406E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>1017</v>
       </c>
@@ -1019,7 +1021,7 @@
         <v>3.19389485585077E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>1018</v>
       </c>
@@ -1057,7 +1059,7 @@
         <v>3.4482758620689599E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>1019</v>
       </c>
@@ -1095,7 +1097,7 @@
         <v>3.1675465407057499E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>1020</v>
       </c>
@@ -1133,7 +1135,7 @@
         <v>0.11390616167326199</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>1022</v>
       </c>
@@ -1171,7 +1173,7 @@
         <v>-1.8089315997738799E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>1023</v>
       </c>
@@ -1209,7 +1211,7 @@
         <v>-8.4793668739402395E-4</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>1024</v>
       </c>
@@ -1247,7 +1249,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>1025</v>
       </c>
@@ -1285,7 +1287,7 @@
         <v>6.8965517241379198E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>1026</v>
       </c>
@@ -1323,7 +1325,7 @@
         <v>1.6091954022988499E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>3001</v>
       </c>
@@ -1361,7 +1363,7 @@
         <v>-1.15041702617202E-3</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>3002</v>
       </c>
@@ -1399,7 +1401,7 @@
         <v>1.6949152542372801E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>3003</v>
       </c>
@@ -1437,7 +1439,7 @@
         <v>3.1609195402298902E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>3004</v>
       </c>
@@ -1475,7 +1477,7 @@
         <v>6.8352320088913607E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>3006</v>
       </c>
@@ -1513,7 +1515,7 @@
         <v>1.6666666666666701E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>3007</v>
       </c>
@@ -1551,7 +1553,7 @@
         <v>-1.8060572381216899E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>3008</v>
       </c>
@@ -1589,7 +1591,7 @@
         <v>-1.47263128646846E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>3009</v>
       </c>
@@ -1627,7 +1629,7 @@
         <v>8.2758620689655102E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>3010</v>
       </c>
@@ -1665,7 +1667,7 @@
         <v>8.5706068449813003E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>1029</v>
       </c>
@@ -1703,7 +1705,7 @@
         <v>1.5282022784106701E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>1030</v>
       </c>
@@ -1741,298 +1743,488 @@
         <v>4.91803278688525E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A35" s="1" t="s">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>1027.5</v>
+      </c>
+      <c r="B33">
+        <v>3.125E-2</v>
+      </c>
+      <c r="C33">
+        <v>3.1578947368420998E-2</v>
+      </c>
+      <c r="D33">
+        <v>3.1414473684210499E-2</v>
+      </c>
+      <c r="E33">
+        <v>6.7796610169491595E-2</v>
+      </c>
+      <c r="F33">
+        <v>8.77192982456141E-2</v>
+      </c>
+      <c r="G33">
+        <v>1.63934426229508E-2</v>
+      </c>
+      <c r="H33">
+        <v>1.6949152542372801E-2</v>
+      </c>
+      <c r="I33">
+        <v>5.6304824561403601E-2</v>
+      </c>
+      <c r="J33">
+        <v>-1.4465321141837699E-2</v>
+      </c>
+      <c r="K33">
+        <v>-1.9922688076122502E-2</v>
+      </c>
+      <c r="L33">
+        <v>-5.55709919421998E-4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>1031</v>
+      </c>
+      <c r="B34">
+        <v>1.04166666666666E-2</v>
+      </c>
+      <c r="C34">
+        <v>2.0833333333333402E-2</v>
+      </c>
+      <c r="D34">
+        <v>1.5625E-2</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <v>3.2786885245901697E-2</v>
+      </c>
+      <c r="G34">
+        <v>1.63934426229508E-2</v>
+      </c>
+      <c r="H34">
+        <v>0</v>
+      </c>
+      <c r="I34">
+        <v>1.71618852459017E-2</v>
+      </c>
+      <c r="J34">
+        <v>-1.5625E-2</v>
+      </c>
+      <c r="K34">
+        <v>-3.2786885245901697E-2</v>
+      </c>
+      <c r="L34">
+        <v>1.63934426229508E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>3012</v>
+      </c>
+      <c r="B35">
+        <v>2.1052631578947299E-2</v>
+      </c>
+      <c r="C35">
+        <v>4.1666666666666602E-2</v>
+      </c>
+      <c r="D35">
+        <v>3.1359649122806997E-2</v>
+      </c>
+      <c r="E35">
+        <v>5.0847457627118599E-2</v>
+      </c>
+      <c r="F35">
+        <v>1.6666666666666701E-2</v>
+      </c>
+      <c r="G35">
+        <v>0.15</v>
+      </c>
+      <c r="H35">
+        <v>1.6949152542372801E-2</v>
+      </c>
+      <c r="I35">
+        <v>-1.4692982456140299E-2</v>
+      </c>
+      <c r="J35">
+        <v>-1.44104965804341E-2</v>
+      </c>
+      <c r="K35">
+        <v>3.4180790960451901E-2</v>
+      </c>
+      <c r="L35">
+        <v>0.13305084745762699</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>3013</v>
+      </c>
+      <c r="B36">
+        <v>0</v>
+      </c>
+      <c r="C36">
+        <v>3.125E-2</v>
+      </c>
+      <c r="D36">
+        <v>1.5625E-2</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <v>0</v>
+      </c>
+      <c r="G36">
+        <v>4.91803278688525E-2</v>
+      </c>
+      <c r="H36">
+        <v>1.6949152542372801E-2</v>
+      </c>
+      <c r="I36">
+        <v>-1.5625E-2</v>
+      </c>
+      <c r="J36">
+        <v>1.3241525423728401E-3</v>
+      </c>
+      <c r="K36">
+        <v>0</v>
+      </c>
+      <c r="L36">
+        <v>3.2231175326479698E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>3014</v>
+      </c>
+      <c r="B37">
+        <v>0.19354838709677399</v>
+      </c>
+      <c r="C37">
+        <v>7.2916666666666602E-2</v>
+      </c>
+      <c r="D37">
+        <v>0.13323252688171999</v>
+      </c>
+      <c r="E37">
+        <v>1.7857142857142901E-2</v>
+      </c>
+      <c r="F37">
+        <v>3.3898305084745797E-2</v>
+      </c>
+      <c r="G37">
+        <v>6.1224489795918297E-2</v>
+      </c>
+      <c r="H37">
+        <v>3.6363636363636397E-2</v>
+      </c>
+      <c r="I37">
+        <v>-9.9334221796974695E-2</v>
+      </c>
+      <c r="J37">
+        <v>-9.6868890518084103E-2</v>
+      </c>
+      <c r="K37">
+        <v>-1.60411622276029E-2</v>
+      </c>
+      <c r="L37">
+        <v>2.48608534322819E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B35">
-        <f>AVERAGE(B2:B32)</f>
-        <v>1.68470571590266E-2</v>
-      </c>
-      <c r="C35">
-        <f t="shared" ref="C35:L35" si="0">AVERAGE(C2:C32)</f>
-        <v>4.3942205806210825E-2</v>
-      </c>
-      <c r="D35">
+      <c r="B40">
+        <f>AVERAGE(B2:B37)</f>
+        <v>2.1625734924228129E-2</v>
+      </c>
+      <c r="C40">
+        <f t="shared" ref="C40:L40" si="0">AVERAGE(C2:C37)</f>
+        <v>4.334594427854508E-2</v>
+      </c>
+      <c r="D40">
         <f t="shared" si="0"/>
-        <v>3.0394631482618704E-2</v>
-      </c>
-      <c r="E35">
+        <v>3.2485839601386596E-2</v>
+      </c>
+      <c r="E40">
         <f t="shared" si="0"/>
-        <v>5.5123909011522594E-2</v>
-      </c>
-      <c r="F35">
+        <v>5.1259510833637591E-2</v>
+      </c>
+      <c r="F40">
         <f t="shared" si="0"/>
-        <v>3.6585640579518415E-2</v>
-      </c>
-      <c r="G35">
+        <v>3.6256278144666643E-2</v>
+      </c>
+      <c r="G40">
         <f t="shared" si="0"/>
-        <v>5.2396229092810144E-2</v>
-      </c>
-      <c r="H35">
+        <v>5.3263189021882963E-2</v>
+      </c>
+      <c r="H40">
         <f t="shared" si="0"/>
-        <v>3.0168049495967179E-2</v>
-      </c>
-      <c r="I35">
+        <v>2.8400573010159375E-2</v>
+      </c>
+      <c r="I40">
         <f t="shared" si="0"/>
-        <v>6.1910090968996974E-3</v>
-      </c>
-      <c r="J35">
+        <v>3.7704385432800239E-3</v>
+      </c>
+      <c r="J40">
         <f t="shared" si="0"/>
-        <v>-2.2658198665154709E-4</v>
-      </c>
-      <c r="K35">
+        <v>-4.08526659122725E-3</v>
+      </c>
+      <c r="K40">
         <f t="shared" si="0"/>
-        <v>1.8538268432004221E-2</v>
-      </c>
-      <c r="L35">
+        <v>1.500323268897099E-2</v>
+      </c>
+      <c r="L40">
         <f t="shared" si="0"/>
-        <v>2.2228179596842985E-2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A36" s="1" t="s">
+        <v>2.4862616011723612E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B36">
-        <f>STDEV(B2:B32)</f>
-        <v>1.5657432698391115E-2</v>
-      </c>
-      <c r="C36">
-        <f t="shared" ref="C36:L36" si="1">STDEV(C2:C32)</f>
-        <v>4.1253529892560543E-2</v>
-      </c>
-      <c r="D36">
+      <c r="B41">
+        <f>STDEV(B2:B37)</f>
+        <v>3.3082681457991592E-2</v>
+      </c>
+      <c r="C41">
+        <f t="shared" ref="C41:L41" si="1">STDEV(C2:C37)</f>
+        <v>3.8816591648299169E-2</v>
+      </c>
+      <c r="D41">
         <f t="shared" si="1"/>
-        <v>2.2271575707758187E-2</v>
-      </c>
-      <c r="E36">
+        <v>2.7117283460911239E-2</v>
+      </c>
+      <c r="E41">
         <f t="shared" si="1"/>
-        <v>5.8554609408374425E-2</v>
-      </c>
-      <c r="F36">
+        <v>5.6052691484033107E-2</v>
+      </c>
+      <c r="F41">
         <f t="shared" si="1"/>
-        <v>4.2565478084493603E-2</v>
-      </c>
-      <c r="G36">
+        <v>4.0960702543351976E-2</v>
+      </c>
+      <c r="G41">
         <f t="shared" si="1"/>
-        <v>5.2356958737579076E-2</v>
-      </c>
-      <c r="H36">
+        <v>5.1938879770911668E-2</v>
+      </c>
+      <c r="H41">
         <f t="shared" si="1"/>
-        <v>4.377847859794378E-2</v>
-      </c>
-      <c r="I36">
+        <v>4.100763233314015E-2</v>
+      </c>
+      <c r="I41">
         <f t="shared" si="1"/>
-        <v>3.3652438394214342E-2</v>
-      </c>
-      <c r="J36">
+        <v>3.7203331957733489E-2</v>
+      </c>
+      <c r="J41">
         <f t="shared" si="1"/>
-        <v>3.2156953879535384E-2</v>
-      </c>
-      <c r="K36">
+        <v>3.4003885230045966E-2</v>
+      </c>
+      <c r="K41">
         <f t="shared" si="1"/>
-        <v>3.7697154329108598E-2</v>
-      </c>
-      <c r="L36">
+        <v>3.706365167648349E-2</v>
+      </c>
+      <c r="L41">
         <f t="shared" si="1"/>
-        <v>3.8606004583522924E-2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A37" s="1" t="s">
+        <v>4.0498558314001558E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B37">
-        <f>B36/(SQRT(31))</f>
-        <v>2.8121579287584374E-3</v>
-      </c>
-      <c r="C37">
-        <f t="shared" ref="C37:L37" si="2">C36/(SQRT(31))</f>
-        <v>7.4093526960239235E-3</v>
-      </c>
-      <c r="D37">
+      <c r="B42">
+        <f>B41/(SQRT(36))</f>
+        <v>5.5137802429985989E-3</v>
+      </c>
+      <c r="C42">
+        <f t="shared" ref="C42:L42" si="2">C41/(SQRT(36))</f>
+        <v>6.4694319413831948E-3</v>
+      </c>
+      <c r="D42">
         <f t="shared" si="2"/>
-        <v>4.0000930816040921E-3</v>
-      </c>
-      <c r="E37">
+        <v>4.5195472434852065E-3</v>
+      </c>
+      <c r="E42">
         <f t="shared" si="2"/>
-        <v>1.0516718307850925E-2</v>
-      </c>
-      <c r="F37">
+        <v>9.3421152473388506E-3</v>
+      </c>
+      <c r="F42">
         <f t="shared" si="2"/>
-        <v>7.644985547279542E-3</v>
-      </c>
-      <c r="G37">
+        <v>6.8267837572253296E-3</v>
+      </c>
+      <c r="G42">
         <f t="shared" si="2"/>
-        <v>9.4035873872662813E-3</v>
-      </c>
-      <c r="H37">
+        <v>8.6564799618186108E-3</v>
+      </c>
+      <c r="H42">
         <f t="shared" si="2"/>
-        <v>7.8628468708563937E-3</v>
-      </c>
-      <c r="I37">
+        <v>6.8346053888566913E-3</v>
+      </c>
+      <c r="I42">
         <f t="shared" si="2"/>
-        <v>6.044156361730303E-3</v>
-      </c>
-      <c r="J37">
+        <v>6.2005553262889151E-3</v>
+      </c>
+      <c r="J42">
         <f t="shared" si="2"/>
-        <v>5.7755594137950238E-3</v>
-      </c>
-      <c r="K37">
+        <v>5.6673142050076607E-3</v>
+      </c>
+      <c r="K42">
         <f t="shared" si="2"/>
-        <v>6.7706087888294948E-3</v>
-      </c>
-      <c r="L37">
+        <v>6.177275279413915E-3</v>
+      </c>
+      <c r="L42">
         <f t="shared" si="2"/>
-        <v>6.9338431132706917E-3</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A38" s="1" t="s">
+        <v>6.7497597190002596E-3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B38">
-        <f>B37*1.96</f>
-        <v>5.5118295403665373E-3</v>
-      </c>
-      <c r="C38">
-        <f t="shared" ref="C38:L38" si="3">C37*1.96</f>
-        <v>1.452233128420689E-2</v>
-      </c>
-      <c r="D38">
+      <c r="B43">
+        <f>B42*1.96</f>
+        <v>1.0807009276277254E-2</v>
+      </c>
+      <c r="C43">
+        <f t="shared" ref="C43:L43" si="3">C42*1.96</f>
+        <v>1.2680086605111062E-2</v>
+      </c>
+      <c r="D43">
         <f t="shared" si="3"/>
-        <v>7.8401824399440198E-3</v>
-      </c>
-      <c r="E38">
+        <v>8.8583125972310044E-3</v>
+      </c>
+      <c r="E43">
         <f t="shared" si="3"/>
-        <v>2.0612767883387811E-2</v>
-      </c>
-      <c r="F38">
+        <v>1.8310545884784146E-2</v>
+      </c>
+      <c r="F43">
         <f t="shared" si="3"/>
-        <v>1.4984171672667902E-2</v>
-      </c>
-      <c r="G38">
+        <v>1.3380496164161646E-2</v>
+      </c>
+      <c r="G43">
         <f t="shared" si="3"/>
-        <v>1.8431031279041912E-2</v>
-      </c>
-      <c r="H38">
+        <v>1.6966700725164478E-2</v>
+      </c>
+      <c r="H43">
         <f t="shared" si="3"/>
-        <v>1.5411179866878531E-2</v>
-      </c>
-      <c r="I38">
+        <v>1.3395826562159114E-2</v>
+      </c>
+      <c r="I43">
         <f t="shared" si="3"/>
-        <v>1.1846546468991394E-2</v>
-      </c>
-      <c r="J38">
+        <v>1.2153088439526274E-2</v>
+      </c>
+      <c r="J43">
         <f t="shared" si="3"/>
-        <v>1.1320096451038247E-2</v>
-      </c>
-      <c r="K38">
+        <v>1.1107935841815015E-2</v>
+      </c>
+      <c r="K43">
         <f t="shared" si="3"/>
-        <v>1.327039322610581E-2</v>
-      </c>
-      <c r="L38">
+        <v>1.2107459547651273E-2</v>
+      </c>
+      <c r="L43">
         <f t="shared" si="3"/>
-        <v>1.3590332502010555E-2</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A39" s="1" t="s">
+        <v>1.322952904924051E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B39">
-        <f>B35+B38</f>
-        <v>2.2358886699393135E-2</v>
-      </c>
-      <c r="C39">
-        <f t="shared" ref="C39:L39" si="4">C35+C38</f>
-        <v>5.8464537090417712E-2</v>
-      </c>
-      <c r="D39">
+      <c r="B44">
+        <f>B40+B43</f>
+        <v>3.2432744200505383E-2</v>
+      </c>
+      <c r="C44">
+        <f t="shared" ref="C44:L44" si="4">C40+C43</f>
+        <v>5.6026030883656139E-2</v>
+      </c>
+      <c r="D44">
         <f t="shared" si="4"/>
-        <v>3.8234813922562727E-2</v>
-      </c>
-      <c r="E39">
+        <v>4.1344152198617604E-2</v>
+      </c>
+      <c r="E44">
         <f t="shared" si="4"/>
-        <v>7.5736676894910399E-2</v>
-      </c>
-      <c r="F39">
+        <v>6.957005671842173E-2</v>
+      </c>
+      <c r="F44">
         <f t="shared" si="4"/>
-        <v>5.156981225218632E-2</v>
-      </c>
-      <c r="G39">
+        <v>4.9636774308828291E-2</v>
+      </c>
+      <c r="G44">
         <f t="shared" si="4"/>
-        <v>7.0827260371852052E-2</v>
-      </c>
-      <c r="H39">
+        <v>7.0229889747047441E-2</v>
+      </c>
+      <c r="H44">
         <f t="shared" si="4"/>
-        <v>4.5579229362845711E-2</v>
-      </c>
-      <c r="I39">
+        <v>4.1796399572318489E-2</v>
+      </c>
+      <c r="I44">
         <f t="shared" si="4"/>
-        <v>1.8037555565891091E-2</v>
-      </c>
-      <c r="J39">
+        <v>1.5923526982806298E-2</v>
+      </c>
+      <c r="J44">
         <f t="shared" si="4"/>
-        <v>1.10935144643867E-2</v>
-      </c>
-      <c r="K39">
+        <v>7.0226692505877646E-3</v>
+      </c>
+      <c r="K44">
         <f t="shared" si="4"/>
-        <v>3.1808661658110027E-2</v>
-      </c>
-      <c r="L39">
+        <v>2.7110692236622262E-2</v>
+      </c>
+      <c r="L44">
         <f t="shared" si="4"/>
-        <v>3.581851209885354E-2</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A40" s="1" t="s">
+        <v>3.8092145060964124E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B40">
-        <f>B35-B38</f>
-        <v>1.1335227618660062E-2</v>
-      </c>
-      <c r="C40">
-        <f t="shared" ref="C40:L40" si="5">C35-C38</f>
-        <v>2.9419874522003935E-2</v>
-      </c>
-      <c r="D40">
+      <c r="B45">
+        <f>B40-B43</f>
+        <v>1.0818725647950875E-2</v>
+      </c>
+      <c r="C45">
+        <f t="shared" ref="C45:L45" si="5">C40-C43</f>
+        <v>3.0665857673434018E-2</v>
+      </c>
+      <c r="D45">
         <f t="shared" si="5"/>
-        <v>2.2554449042674684E-2</v>
-      </c>
-      <c r="E40">
+        <v>2.3627527004155591E-2</v>
+      </c>
+      <c r="E45">
         <f t="shared" si="5"/>
-        <v>3.4511141128134783E-2</v>
-      </c>
-      <c r="F40">
+        <v>3.2948964948853444E-2</v>
+      </c>
+      <c r="F45">
         <f t="shared" si="5"/>
-        <v>2.1601468906850513E-2</v>
-      </c>
-      <c r="G40">
+        <v>2.2875781980504994E-2</v>
+      </c>
+      <c r="G45">
         <f t="shared" si="5"/>
-        <v>3.3965197813768236E-2</v>
-      </c>
-      <c r="H40">
+        <v>3.6296488296718485E-2</v>
+      </c>
+      <c r="H45">
         <f t="shared" si="5"/>
-        <v>1.4756869629088648E-2</v>
-      </c>
-      <c r="I40">
+        <v>1.5004746448000261E-2</v>
+      </c>
+      <c r="I45">
         <f t="shared" si="5"/>
-        <v>-5.6555373720916964E-3</v>
-      </c>
-      <c r="J40">
+        <v>-8.3826498962462498E-3</v>
+      </c>
+      <c r="J45">
         <f t="shared" si="5"/>
-        <v>-1.1546678437689794E-2</v>
-      </c>
-      <c r="K40">
+        <v>-1.5193202433042265E-2</v>
+      </c>
+      <c r="K45">
         <f t="shared" si="5"/>
-        <v>5.2678752058984112E-3</v>
-      </c>
-      <c r="L40">
+        <v>2.8957731413197171E-3</v>
+      </c>
+      <c r="L45">
         <f t="shared" si="5"/>
-        <v>8.6378470948324307E-3</v>
+        <v>1.1633086962483103E-2</v>
       </c>
     </row>
   </sheetData>
@@ -2042,19 +2234,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B98B6F23-48BD-402D-A17B-4A837A297F6B}">
-  <dimension ref="A1:M39"/>
+  <dimension ref="A1:M45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D42" sqref="D42"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C40" sqref="C40:L45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="9" max="9" width="13.44140625" customWidth="1"/>
+    <col min="9" max="9" width="13.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2092,7 +2284,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1001</v>
       </c>
@@ -2130,7 +2322,7 @@
         <v>416.56821339260898</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1002</v>
       </c>
@@ -2168,7 +2360,7 @@
         <v>23.517231638418</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1003</v>
       </c>
@@ -2206,7 +2398,7 @@
         <v>916.20894213910003</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1007</v>
       </c>
@@ -2244,7 +2436,7 @@
         <v>273.37206223104897</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1008</v>
       </c>
@@ -2282,7 +2474,7 @@
         <v>430.53820505696001</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1009</v>
       </c>
@@ -2320,7 +2512,7 @@
         <v>243.87931034482801</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1010</v>
       </c>
@@ -2358,7 +2550,7 @@
         <v>380.12653288740199</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1011</v>
       </c>
@@ -2396,7 +2588,7 @@
         <v>83.387931034482804</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1014</v>
       </c>
@@ -2434,7 +2626,7 @@
         <v>-86.001683501683601</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>1015</v>
       </c>
@@ -2472,7 +2664,7 @@
         <v>40.547186932849399</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>1016</v>
       </c>
@@ -2510,7 +2702,7 @@
         <v>371.09614035087702</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>1017</v>
       </c>
@@ -2548,7 +2740,7 @@
         <v>-57.575317604355902</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>1018</v>
       </c>
@@ -2586,7 +2778,7 @@
         <v>446.72518159806299</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>1019</v>
       </c>
@@ -2624,7 +2816,7 @@
         <v>253.50877192982401</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>1020</v>
       </c>
@@ -2662,7 +2854,7 @@
         <v>510.05097649784801</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>1022</v>
       </c>
@@ -2700,7 +2892,7 @@
         <v>12.4178571428574</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>1023</v>
       </c>
@@ -2738,7 +2930,7 @@
         <v>107.154385964912</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>1024</v>
       </c>
@@ -2776,7 +2968,7 @@
         <v>196.78299527646601</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>1025</v>
       </c>
@@ -2814,7 +3006,7 @@
         <v>150.236014564714</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>3001</v>
       </c>
@@ -2852,7 +3044,7 @@
         <v>42.242857142856998</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>3002</v>
       </c>
@@ -2890,7 +3082,7 @@
         <v>882.55021173623697</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>3003</v>
       </c>
@@ -2928,7 +3120,7 @@
         <v>266.60000000000002</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>3004</v>
       </c>
@@ -2966,7 +3158,7 @@
         <v>209.51111111111101</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>3006</v>
       </c>
@@ -3004,7 +3196,7 @@
         <v>162.796610169491</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>3007</v>
       </c>
@@ -3042,7 +3234,7 @@
         <v>218.28117433414101</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>3008</v>
       </c>
@@ -3081,7 +3273,7 @@
       </c>
       <c r="M27" s="1"/>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>3009</v>
       </c>
@@ -3120,7 +3312,7 @@
       </c>
       <c r="M28" s="1"/>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>3010</v>
       </c>
@@ -3158,7 +3350,7 @@
         <v>57.755928853755002</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>1026</v>
       </c>
@@ -3196,7 +3388,7 @@
         <v>560.32032667876604</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>1029</v>
       </c>
@@ -3234,7 +3426,7 @@
         <v>341.93284936479199</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>1030</v>
       </c>
@@ -3272,298 +3464,488 @@
         <v>123.10344827586199</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A34" s="1" t="s">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>1027.5</v>
+      </c>
+      <c r="B33">
+        <v>1317.9032258064501</v>
+      </c>
+      <c r="C33">
+        <v>1452.72826086957</v>
+      </c>
+      <c r="D33">
+        <v>1385.31574333801</v>
+      </c>
+      <c r="E33">
+        <v>2883.3636363636401</v>
+      </c>
+      <c r="F33">
+        <v>2764.26923076923</v>
+      </c>
+      <c r="G33">
+        <v>2846.6</v>
+      </c>
+      <c r="H33">
+        <v>2159.2241379310299</v>
+      </c>
+      <c r="I33">
+        <v>1378.9534874312201</v>
+      </c>
+      <c r="J33">
+        <v>773.90839459302595</v>
+      </c>
+      <c r="K33">
+        <v>119.094405594406</v>
+      </c>
+      <c r="L33">
+        <v>687.37586206896503</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>1031</v>
+      </c>
+      <c r="B34">
+        <v>927.74736842105301</v>
+      </c>
+      <c r="C34">
+        <v>1031.63829787234</v>
+      </c>
+      <c r="D34">
+        <v>979.69283314669701</v>
+      </c>
+      <c r="E34">
+        <v>2003.3728813559301</v>
+      </c>
+      <c r="F34">
+        <v>2260.3728813559301</v>
+      </c>
+      <c r="G34">
+        <v>1893.5333333333299</v>
+      </c>
+      <c r="H34">
+        <v>1656.5593220338999</v>
+      </c>
+      <c r="I34">
+        <v>1280.6800482092401</v>
+      </c>
+      <c r="J34">
+        <v>676.86648888720197</v>
+      </c>
+      <c r="K34">
+        <v>-257</v>
+      </c>
+      <c r="L34">
+        <v>236.97401129943501</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>3012</v>
+      </c>
+      <c r="B35">
+        <v>854.54838709677404</v>
+      </c>
+      <c r="C35">
+        <v>947.58695652173901</v>
+      </c>
+      <c r="D35">
+        <v>901.06767180925704</v>
+      </c>
+      <c r="E35">
+        <v>1983.30357142857</v>
+      </c>
+      <c r="F35">
+        <v>2089.8983050847501</v>
+      </c>
+      <c r="G35">
+        <v>2228.6078431372498</v>
+      </c>
+      <c r="H35">
+        <v>2128.7586206896599</v>
+      </c>
+      <c r="I35">
+        <v>1188.8306332754901</v>
+      </c>
+      <c r="J35">
+        <v>1227.6909488803999</v>
+      </c>
+      <c r="K35">
+        <v>-106.59473365617499</v>
+      </c>
+      <c r="L35">
+        <v>99.849222447599502</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>3013</v>
+      </c>
+      <c r="B36">
+        <v>717.41666666666697</v>
+      </c>
+      <c r="C36">
+        <v>792.47311827957003</v>
+      </c>
+      <c r="D36">
+        <v>754.94489247311799</v>
+      </c>
+      <c r="E36">
+        <v>1880.5084745762699</v>
+      </c>
+      <c r="F36">
+        <v>1375.8360655737699</v>
+      </c>
+      <c r="G36">
+        <v>1787.8448275862099</v>
+      </c>
+      <c r="H36">
+        <v>1661.58620689655</v>
+      </c>
+      <c r="I36">
+        <v>620.89117310065205</v>
+      </c>
+      <c r="J36">
+        <v>906.64131442343296</v>
+      </c>
+      <c r="K36">
+        <v>504.67240900250101</v>
+      </c>
+      <c r="L36">
+        <v>126.258620689655</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>3014</v>
+      </c>
+      <c r="B37">
+        <v>1455.0266666666701</v>
+      </c>
+      <c r="C37">
+        <v>1016.23595505618</v>
+      </c>
+      <c r="D37">
+        <v>1235.6313108614199</v>
+      </c>
+      <c r="E37">
+        <v>3604.3636363636401</v>
+      </c>
+      <c r="F37">
+        <v>2977.10526315789</v>
+      </c>
+      <c r="G37">
+        <v>4045.6956521739098</v>
+      </c>
+      <c r="H37">
+        <v>3618.8867924528299</v>
+      </c>
+      <c r="I37">
+        <v>1741.4739522964701</v>
+      </c>
+      <c r="J37">
+        <v>2383.25548159141</v>
+      </c>
+      <c r="K37">
+        <v>627.25837320574203</v>
+      </c>
+      <c r="L37">
+        <v>426.80885972108302</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B34">
-        <f>AVERAGE(B1:B32)</f>
-        <v>884.46025806834484</v>
-      </c>
-      <c r="C34">
-        <f t="shared" ref="C34:L34" si="0">AVERAGE(C1:C32)</f>
-        <v>998.75795436241935</v>
-      </c>
-      <c r="D34">
+      <c r="B40">
+        <f>AVERAGE(B2:B37)</f>
+        <v>908.08084207711954</v>
+      </c>
+      <c r="C40">
+        <f t="shared" ref="C40:L40" si="0">AVERAGE(C2:C37)</f>
+        <v>1005.6155326065111</v>
+      </c>
+      <c r="D40">
         <f t="shared" si="0"/>
-        <v>941.60910621538198</v>
-      </c>
-      <c r="E34">
+        <v>956.84818734181522</v>
+      </c>
+      <c r="E40">
         <f t="shared" si="0"/>
-        <v>2081.1015159066656</v>
-      </c>
-      <c r="F34">
+        <v>2135.2516442554083</v>
+      </c>
+      <c r="F40">
         <f t="shared" si="0"/>
-        <v>2026.8349131397824</v>
-      </c>
-      <c r="G34">
+        <v>2063.8712237020782</v>
+      </c>
+      <c r="G40">
         <f t="shared" si="0"/>
-        <v>2163.4301533073922</v>
-      </c>
-      <c r="H34">
+        <v>2218.5726780211066</v>
+      </c>
+      <c r="H40">
         <f t="shared" si="0"/>
-        <v>1899.6204202304407</v>
-      </c>
-      <c r="I34">
+        <v>1947.5902251985451</v>
+      </c>
+      <c r="I40">
         <f t="shared" si="0"/>
-        <v>1085.2258069243994</v>
-      </c>
-      <c r="J34">
+        <v>1107.0230363602625</v>
+      </c>
+      <c r="J40">
         <f t="shared" si="0"/>
-        <v>958.01131401505813</v>
-      </c>
-      <c r="K34">
+        <v>990.74203785672989</v>
+      </c>
+      <c r="K40">
         <f t="shared" si="0"/>
-        <v>54.26660276688434</v>
-      </c>
-      <c r="L34">
+        <v>71.380420553330225</v>
+      </c>
+      <c r="L40">
         <f t="shared" si="0"/>
-        <v>263.80973307695172</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A35" s="1" t="s">
+        <v>270.98245282256227</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B35">
-        <f>STDEV(B1:B32)</f>
-        <v>269.60105113823471</v>
-      </c>
-      <c r="C35">
-        <f t="shared" ref="C35:L35" si="1">STDEV(C1:C32)</f>
-        <v>336.93071922110937</v>
-      </c>
-      <c r="D35">
+      <c r="B41">
+        <f>STDEV(B2:B37)</f>
+        <v>277.9798111848495</v>
+      </c>
+      <c r="C41">
+        <f t="shared" ref="C41:L41" si="1">STDEV(C2:C37)</f>
+        <v>323.22587760148156</v>
+      </c>
+      <c r="D41">
         <f t="shared" si="1"/>
-        <v>265.60355070132078</v>
-      </c>
-      <c r="E35">
+        <v>263.45285631344501</v>
+      </c>
+      <c r="E41">
         <f t="shared" si="1"/>
-        <v>726.62065555204617</v>
-      </c>
-      <c r="F35">
+        <v>731.99458519040354</v>
+      </c>
+      <c r="F41">
         <f t="shared" si="1"/>
-        <v>781.2674882347502</v>
-      </c>
-      <c r="G35">
+        <v>759.53228937009601</v>
+      </c>
+      <c r="G41">
         <f t="shared" si="1"/>
-        <v>708.54836936056495</v>
-      </c>
-      <c r="H35">
+        <v>740.26172653025947</v>
+      </c>
+      <c r="H41">
         <f t="shared" si="1"/>
-        <v>621.46741994232173</v>
-      </c>
-      <c r="I35">
+        <v>647.97105734930142</v>
+      </c>
+      <c r="I41">
         <f t="shared" si="1"/>
-        <v>651.15091852377952</v>
-      </c>
-      <c r="J35">
+        <v>620.69780594056067</v>
+      </c>
+      <c r="J41">
         <f t="shared" si="1"/>
-        <v>489.13083909979792</v>
-      </c>
-      <c r="K35">
+        <v>517.09423677547591</v>
+      </c>
+      <c r="K41">
         <f t="shared" si="1"/>
-        <v>175.54581208380736</v>
-      </c>
-      <c r="L35">
+        <v>211.93644975574381</v>
+      </c>
+      <c r="L41">
         <f t="shared" si="1"/>
-        <v>256.109960048907</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A36" s="1" t="s">
+        <v>251.76052787315763</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B36">
-        <f>B35/(SQRT(31))</f>
-        <v>48.42177821641863</v>
-      </c>
-      <c r="C36">
-        <f t="shared" ref="C36:L36" si="2">C35/(SQRT(31))</f>
-        <v>60.514543587805846</v>
-      </c>
-      <c r="D36">
+      <c r="B42">
+        <f>B41/(SQRT(36))</f>
+        <v>46.329968530808252</v>
+      </c>
+      <c r="C42">
+        <f t="shared" ref="C42:L42" si="2">C41/(SQRT(36))</f>
+        <v>53.870979600246926</v>
+      </c>
+      <c r="D42">
         <f t="shared" si="2"/>
-        <v>47.703805943094544</v>
-      </c>
-      <c r="E36">
+        <v>43.908809385574166</v>
+      </c>
+      <c r="E42">
         <f t="shared" si="2"/>
-        <v>130.50492229931842</v>
-      </c>
-      <c r="F36">
+        <v>121.99909753173392</v>
+      </c>
+      <c r="F42">
         <f t="shared" si="2"/>
-        <v>140.31978318810212</v>
-      </c>
-      <c r="G36">
+        <v>126.588714895016</v>
+      </c>
+      <c r="G42">
         <f t="shared" si="2"/>
-        <v>127.25904387958313</v>
-      </c>
-      <c r="H36">
+        <v>123.37695442170991</v>
+      </c>
+      <c r="H42">
         <f t="shared" si="2"/>
-        <v>111.61884365854125</v>
-      </c>
-      <c r="I36">
+        <v>107.99517622488356</v>
+      </c>
+      <c r="I42">
         <f t="shared" si="2"/>
-        <v>116.95015738647533</v>
-      </c>
-      <c r="J36">
+        <v>103.44963432342678</v>
+      </c>
+      <c r="J42">
         <f t="shared" si="2"/>
-        <v>87.850492087129055</v>
-      </c>
-      <c r="K36">
+        <v>86.182372795912656</v>
+      </c>
+      <c r="K42">
         <f t="shared" si="2"/>
-        <v>31.528958598847694</v>
-      </c>
-      <c r="L36">
+        <v>35.322741625957299</v>
+      </c>
+      <c r="L42">
         <f t="shared" si="2"/>
-        <v>45.998706726649196</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A37" s="1" t="s">
+        <v>41.960087978859605</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B37">
-        <f>B36*1.96</f>
-        <v>94.906685304180513</v>
-      </c>
-      <c r="C37">
-        <f t="shared" ref="C37:L37" si="3">C36*1.96</f>
-        <v>118.60850543209946</v>
-      </c>
-      <c r="D37">
+      <c r="B43">
+        <f>B42*1.96</f>
+        <v>90.80673832038417</v>
+      </c>
+      <c r="C43">
+        <f t="shared" ref="C43:L43" si="3">C42*1.96</f>
+        <v>105.58712001648398</v>
+      </c>
+      <c r="D43">
         <f t="shared" si="3"/>
-        <v>93.499459648465304</v>
-      </c>
-      <c r="E37">
+        <v>86.061266395725369</v>
+      </c>
+      <c r="E43">
         <f t="shared" si="3"/>
-        <v>255.78964770666411</v>
-      </c>
-      <c r="F37">
+        <v>239.1182311621985</v>
+      </c>
+      <c r="F43">
         <f t="shared" si="3"/>
-        <v>275.02677504868018</v>
-      </c>
-      <c r="G37">
+        <v>248.11388119423134</v>
+      </c>
+      <c r="G43">
         <f t="shared" si="3"/>
-        <v>249.42772600398294</v>
-      </c>
-      <c r="H37">
+        <v>241.81883066655143</v>
+      </c>
+      <c r="H43">
         <f t="shared" si="3"/>
-        <v>218.77293357074086</v>
-      </c>
-      <c r="I37">
+        <v>211.67054540077177</v>
+      </c>
+      <c r="I43">
         <f t="shared" si="3"/>
-        <v>229.22230847749162</v>
-      </c>
-      <c r="J37">
+        <v>202.76128327391649</v>
+      </c>
+      <c r="J43">
         <f t="shared" si="3"/>
-        <v>172.18696449077294</v>
-      </c>
-      <c r="K37">
+        <v>168.9174506799888</v>
+      </c>
+      <c r="K43">
         <f t="shared" si="3"/>
-        <v>61.79675885374148</v>
-      </c>
-      <c r="L37">
+        <v>69.232573586876299</v>
+      </c>
+      <c r="L43">
         <f t="shared" si="3"/>
-        <v>90.157465184232422</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A38" s="1" t="s">
+        <v>82.241772438564823</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B38">
-        <f>B34+B37</f>
-        <v>979.36694337252538</v>
-      </c>
-      <c r="C38">
-        <f t="shared" ref="C38:L38" si="4">C34+C37</f>
-        <v>1117.3664597945187</v>
-      </c>
-      <c r="D38">
+      <c r="B44">
+        <f>B40+B43</f>
+        <v>998.88758039750371</v>
+      </c>
+      <c r="C44">
+        <f t="shared" ref="C44:L44" si="4">C40+C43</f>
+        <v>1111.2026526229952</v>
+      </c>
+      <c r="D44">
         <f t="shared" si="4"/>
-        <v>1035.1085658638474</v>
-      </c>
-      <c r="E38">
+        <v>1042.9094537375406</v>
+      </c>
+      <c r="E44">
         <f t="shared" si="4"/>
-        <v>2336.8911636133298</v>
-      </c>
-      <c r="F38">
+        <v>2374.3698754176066</v>
+      </c>
+      <c r="F44">
         <f t="shared" si="4"/>
-        <v>2301.8616881884627</v>
-      </c>
-      <c r="G38">
+        <v>2311.9851048963096</v>
+      </c>
+      <c r="G44">
         <f t="shared" si="4"/>
-        <v>2412.8578793113752</v>
-      </c>
-      <c r="H38">
+        <v>2460.3915086876582</v>
+      </c>
+      <c r="H44">
         <f t="shared" si="4"/>
-        <v>2118.3933538011815</v>
-      </c>
-      <c r="I38">
+        <v>2159.2607705993169</v>
+      </c>
+      <c r="I44">
         <f t="shared" si="4"/>
-        <v>1314.4481154018911</v>
-      </c>
-      <c r="J38">
+        <v>1309.7843196341789</v>
+      </c>
+      <c r="J44">
         <f t="shared" si="4"/>
-        <v>1130.198278505831</v>
-      </c>
-      <c r="K38">
+        <v>1159.6594885367188</v>
+      </c>
+      <c r="K44">
         <f t="shared" si="4"/>
-        <v>116.06336162062581</v>
-      </c>
-      <c r="L38">
+        <v>140.61299414020652</v>
+      </c>
+      <c r="L44">
         <f t="shared" si="4"/>
-        <v>353.96719826118414</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A39" s="1" t="s">
+        <v>353.22422526112712</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B39">
-        <f>B34-B37</f>
-        <v>789.5535727641643</v>
-      </c>
-      <c r="C39">
-        <f t="shared" ref="C39:L39" si="5">C34-C37</f>
-        <v>880.14944893031986</v>
-      </c>
-      <c r="D39">
+      <c r="B45">
+        <f>B40-B43</f>
+        <v>817.27410375673537</v>
+      </c>
+      <c r="C45">
+        <f t="shared" ref="C45:L45" si="5">C40-C43</f>
+        <v>900.02841259002719</v>
+      </c>
+      <c r="D45">
         <f t="shared" si="5"/>
-        <v>848.10964656691669</v>
-      </c>
-      <c r="E39">
+        <v>870.78692094608982</v>
+      </c>
+      <c r="E45">
         <f t="shared" si="5"/>
-        <v>1825.3118682000015</v>
-      </c>
-      <c r="F39">
+        <v>1896.1334130932098</v>
+      </c>
+      <c r="F45">
         <f t="shared" si="5"/>
-        <v>1751.8081380911021</v>
-      </c>
-      <c r="G39">
+        <v>1815.7573425078467</v>
+      </c>
+      <c r="G45">
         <f t="shared" si="5"/>
-        <v>1914.0024273034091</v>
-      </c>
-      <c r="H39">
+        <v>1976.7538473545551</v>
+      </c>
+      <c r="H45">
         <f t="shared" si="5"/>
-        <v>1680.8474866596998</v>
-      </c>
-      <c r="I39">
+        <v>1735.9196797977734</v>
+      </c>
+      <c r="I45">
         <f t="shared" si="5"/>
-        <v>856.00349844690777</v>
-      </c>
-      <c r="J39">
+        <v>904.26175308634606</v>
+      </c>
+      <c r="J45">
         <f t="shared" si="5"/>
-        <v>785.82434952428525</v>
-      </c>
-      <c r="K39">
+        <v>821.82458717674103</v>
+      </c>
+      <c r="K45">
         <f t="shared" si="5"/>
-        <v>-7.53015608685714</v>
-      </c>
-      <c r="L39">
+        <v>2.1478469664539261</v>
+      </c>
+      <c r="L45">
         <f t="shared" si="5"/>
-        <v>173.65226789271929</v>
+        <v>188.74068038399744</v>
       </c>
     </row>
   </sheetData>
@@ -3573,16 +3955,16 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1B5B3B6-E066-499C-A3AA-C3C7E4C73E0C}">
-  <dimension ref="A1:M40"/>
+  <dimension ref="A1:M45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P29" sqref="P29"/>
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3620,7 +4002,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1001</v>
       </c>
@@ -3658,7 +4040,7 @@
         <v>0.23202748921570901</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1002</v>
       </c>
@@ -3696,7 +4078,7 @@
         <v>1.30990412492744E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1003</v>
       </c>
@@ -3734,7 +4116,7 @@
         <v>0.51032616893684501</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1007</v>
       </c>
@@ -3772,7 +4154,7 @@
         <v>0.15226757871083499</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1008</v>
       </c>
@@ -3810,7 +4192,7 @@
         <v>0.239808740847573</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1009</v>
       </c>
@@ -3848,7 +4230,7 @@
         <v>0.13584018710913301</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1010</v>
       </c>
@@ -3887,7 +4269,7 @@
       </c>
       <c r="M8" s="1"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1011</v>
       </c>
@@ -3925,7 +4307,7 @@
         <v>4.6446876278071397E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1014</v>
       </c>
@@ -3963,7 +4345,7 @@
         <v>-4.79027300924008E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>1015</v>
       </c>
@@ -4001,7 +4383,7 @@
         <v>2.2584685235985901E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>1016</v>
       </c>
@@ -4039,7 +4421,7 @@
         <v>0.20669965430632201</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>1017</v>
       </c>
@@ -4077,7 +4459,7 @@
         <v>-3.2069312912132698E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>1018</v>
       </c>
@@ -4115,7 +4497,7 @@
         <v>0.24882484770372801</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>1019</v>
       </c>
@@ -4153,7 +4535,7 @@
         <v>0.14120377396533901</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>1020</v>
       </c>
@@ -4191,7 +4573,7 @@
         <v>0.284097162587096</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>1022</v>
       </c>
@@ -4229,7 +4611,7 @@
         <v>6.9167164504243504E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>1023</v>
       </c>
@@ -4267,7 +4649,7 @@
         <v>5.9684734299342297E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>1024</v>
       </c>
@@ -4305,7 +4687,7 @@
         <v>0.10960765331202101</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>1025</v>
       </c>
@@ -4343,7 +4725,7 @@
         <v>8.3681097425384404E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>3001</v>
       </c>
@@ -4381,7 +4763,7 @@
         <v>2.3529169449415601E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>3002</v>
       </c>
@@ -4419,7 +4801,7 @@
         <v>0.49157833735852902</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>3003</v>
       </c>
@@ -4457,7 +4839,7 @@
         <v>0.14849555639668399</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>3004</v>
       </c>
@@ -4495,7 +4877,7 @@
         <v>0.11669718310477099</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>3006</v>
       </c>
@@ -4533,7 +4915,7 @@
         <v>9.0677318854511205E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>3007</v>
       </c>
@@ -4571,7 +4953,7 @@
         <v>0.121582087148049</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>3008</v>
       </c>
@@ -4609,7 +4991,7 @@
         <v>-4.6422223924025001E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>3009</v>
       </c>
@@ -4647,7 +5029,7 @@
         <v>0.38088048663040402</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>3010</v>
       </c>
@@ -4685,7 +5067,7 @@
         <v>3.21699129420316E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>1026</v>
       </c>
@@ -4723,7 +5105,7 @@
         <v>0.31209706928182701</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>1029</v>
       </c>
@@ -4761,7 +5143,7 @@
         <v>0.19045577163063801</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>1030</v>
       </c>
@@ -4799,298 +5181,488 @@
         <v>6.8568323503655604E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A35" s="1" t="s">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>1027.5</v>
+      </c>
+      <c r="B33">
+        <v>-0.223820329385646</v>
+      </c>
+      <c r="C33">
+        <v>-0.14796237171533899</v>
+      </c>
+      <c r="D33">
+        <v>-0.185891350550492</v>
+      </c>
+      <c r="E33">
+        <v>0.65697031534140504</v>
+      </c>
+      <c r="F33">
+        <v>0.58996303902865199</v>
+      </c>
+      <c r="G33">
+        <v>0.63628562299347602</v>
+      </c>
+      <c r="H33">
+        <v>0.24954046825267501</v>
+      </c>
+      <c r="I33">
+        <v>0.77585438957914399</v>
+      </c>
+      <c r="J33">
+        <v>0.435431818803167</v>
+      </c>
+      <c r="K33">
+        <v>6.7007276312753106E-2</v>
+      </c>
+      <c r="L33">
+        <v>0.38674515474080101</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>1031</v>
+      </c>
+      <c r="B34">
+        <v>-0.44333762081827199</v>
+      </c>
+      <c r="C34">
+        <v>-0.38488442831618702</v>
+      </c>
+      <c r="D34">
+        <v>-0.41411102456722998</v>
+      </c>
+      <c r="E34">
+        <v>0.16185231731984701</v>
+      </c>
+      <c r="F34">
+        <v>0.30645079721004398</v>
+      </c>
+      <c r="G34">
+        <v>0.100052194067341</v>
+      </c>
+      <c r="H34">
+        <v>-3.3278863548926098E-2</v>
+      </c>
+      <c r="I34">
+        <v>0.72056182177727301</v>
+      </c>
+      <c r="J34">
+        <v>0.38083216101830297</v>
+      </c>
+      <c r="K34">
+        <v>-0.144598479890197</v>
+      </c>
+      <c r="L34">
+        <v>0.13333105761626701</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>3012</v>
+      </c>
+      <c r="B35">
+        <v>-0.48452229563929</v>
+      </c>
+      <c r="C35">
+        <v>-0.43217507497777802</v>
+      </c>
+      <c r="D35">
+        <v>-0.45834868530853401</v>
+      </c>
+      <c r="E35">
+        <v>0.15056052079089099</v>
+      </c>
+      <c r="F35">
+        <v>0.21053498168965801</v>
+      </c>
+      <c r="G35">
+        <v>0.28857851612025798</v>
+      </c>
+      <c r="H35">
+        <v>0.232399349645001</v>
+      </c>
+      <c r="I35">
+        <v>0.66888366699819202</v>
+      </c>
+      <c r="J35">
+        <v>0.69074803495353498</v>
+      </c>
+      <c r="K35">
+        <v>-5.99744608987672E-2</v>
+      </c>
+      <c r="L35">
+        <v>5.6179166475257003E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>3013</v>
+      </c>
+      <c r="B36">
+        <v>-0.56167808676349595</v>
+      </c>
+      <c r="C36">
+        <v>-0.51944832486007997</v>
+      </c>
+      <c r="D36">
+        <v>-0.54056320581178796</v>
+      </c>
+      <c r="E36">
+        <v>9.2723887541832195E-2</v>
+      </c>
+      <c r="F36">
+        <v>-0.19122499644371299</v>
+      </c>
+      <c r="G36">
+        <v>4.0587613238933097E-2</v>
+      </c>
+      <c r="H36">
+        <v>-3.0450537051950399E-2</v>
+      </c>
+      <c r="I36">
+        <v>0.34933820936807503</v>
+      </c>
+      <c r="J36">
+        <v>0.51011266875983696</v>
+      </c>
+      <c r="K36">
+        <v>0.28394888398554502</v>
+      </c>
+      <c r="L36">
+        <v>7.1038150290883506E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>3014</v>
+      </c>
+      <c r="B37">
+        <v>-0.14666919667864001</v>
+      </c>
+      <c r="C37">
+        <v>-0.39355040247169099</v>
+      </c>
+      <c r="D37">
+        <v>-0.27010979957516501</v>
+      </c>
+      <c r="E37">
+        <v>1.06263375503336</v>
+      </c>
+      <c r="F37">
+        <v>0.70971310420087497</v>
+      </c>
+      <c r="G37">
+        <v>1.3109448002202899</v>
+      </c>
+      <c r="H37">
+        <v>1.0708050635691799</v>
+      </c>
+      <c r="I37">
+        <v>0.97982290377604098</v>
+      </c>
+      <c r="J37">
+        <v>1.3409148631443399</v>
+      </c>
+      <c r="K37">
+        <v>0.35292065083248297</v>
+      </c>
+      <c r="L37">
+        <v>0.24013973665111599</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B35">
-        <f>AVERAGE(B2:B32)</f>
-        <v>-0.45276782890738798</v>
-      </c>
-      <c r="C35">
-        <f t="shared" ref="C35:L35" si="0">AVERAGE(C2:C32)</f>
-        <v>-0.38910428799948182</v>
-      </c>
-      <c r="D35">
-        <f t="shared" si="0"/>
-        <v>-0.42093605845343501</v>
-      </c>
-      <c r="E35">
-        <f t="shared" si="0"/>
-        <v>0.2137584628777929</v>
-      </c>
-      <c r="F35">
-        <f t="shared" si="0"/>
-        <v>0.1835320961425104</v>
-      </c>
-      <c r="G35">
-        <f t="shared" si="0"/>
-        <v>0.2596153151591199</v>
-      </c>
-      <c r="H35">
-        <f t="shared" si="0"/>
-        <v>0.11267393070254589</v>
-      </c>
-      <c r="I35">
-        <f t="shared" si="0"/>
-        <v>0.60446815459594538</v>
-      </c>
-      <c r="J35">
-        <f t="shared" si="0"/>
-        <v>0.53360998915598057</v>
-      </c>
-      <c r="K35">
-        <f t="shared" si="0"/>
-        <v>3.0226366735282586E-2</v>
-      </c>
-      <c r="L35">
-        <f t="shared" si="0"/>
-        <v>0.14694138445657398</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A36" s="1" t="s">
+      <c r="B40">
+        <f>AVERAGE(B2:B37)</f>
+        <v>-0.44155083959484359</v>
+      </c>
+      <c r="C40">
+        <f>AVERAGE(C2:C37)</f>
+        <v>-0.38722926473125036</v>
+      </c>
+      <c r="D40">
+        <f>AVERAGE(D2:D37)</f>
+        <v>-0.41439005216304703</v>
+      </c>
+      <c r="E40">
+        <f>AVERAGE(E2:E37)</f>
+        <v>0.2430903651455254</v>
+      </c>
+      <c r="F40">
+        <f>AVERAGE(F2:F37)</f>
+        <v>0.20319255294731497</v>
+      </c>
+      <c r="G40">
+        <f>AVERAGE(G2:G37)</f>
+        <v>0.28957009768258379</v>
+      </c>
+      <c r="H40">
+        <f>AVERAGE(H2:H37)</f>
+        <v>0.13838631479569172</v>
+      </c>
+      <c r="I40">
+        <f>AVERAGE(I2:I37)</f>
+        <v>0.61758260511036189</v>
+      </c>
+      <c r="J40">
+        <f>AVERAGE(J2:J37)</f>
+        <v>0.55277636695873844</v>
+      </c>
+      <c r="K40">
+        <f>AVERAGE(K2:K37)</f>
+        <v>3.9897812198210474E-2</v>
+      </c>
+      <c r="L40">
+        <f>AVERAGE(L2:L37)</f>
+        <v>0.15118378288689216</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B36">
-        <f>STDEV(B2:B32)</f>
-        <v>0.15016713463579556</v>
-      </c>
-      <c r="C36">
-        <f t="shared" ref="C36:L36" si="1">STDEV(C2:C32)</f>
-        <v>0.18766959721632984</v>
-      </c>
-      <c r="D36">
-        <f t="shared" si="1"/>
-        <v>0.14794053654286368</v>
-      </c>
-      <c r="E36">
-        <f t="shared" si="1"/>
-        <v>0.40472595099596459</v>
-      </c>
-      <c r="F36">
-        <f t="shared" si="1"/>
-        <v>0.43516410487644058</v>
-      </c>
-      <c r="G36">
-        <f t="shared" si="1"/>
-        <v>0.39465973121590486</v>
-      </c>
-      <c r="H36">
-        <f t="shared" si="1"/>
-        <v>0.34615585261345172</v>
-      </c>
-      <c r="I36">
-        <f t="shared" si="1"/>
-        <v>0.3626894896639179</v>
-      </c>
-      <c r="J36">
-        <f t="shared" si="1"/>
-        <v>0.27244469656002046</v>
-      </c>
-      <c r="K36">
-        <f t="shared" si="1"/>
-        <v>9.7778593542733341E-2</v>
-      </c>
-      <c r="L36">
-        <f t="shared" si="1"/>
-        <v>0.14265262946809804</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A37" s="1" t="s">
+      <c r="B41">
+        <f>STDEV(B2:B37)</f>
+        <v>0.15409158210132057</v>
+      </c>
+      <c r="C41">
+        <f>STDEV(C2:C37)</f>
+        <v>0.17996042624610839</v>
+      </c>
+      <c r="D41">
+        <f>STDEV(D2:D37)</f>
+        <v>0.14626795163458586</v>
+      </c>
+      <c r="E41">
+        <f>STDEV(E2:E37)</f>
+        <v>0.40783342148054047</v>
+      </c>
+      <c r="F41">
+        <f>STDEV(F2:F37)</f>
+        <v>0.4230991894135423</v>
+      </c>
+      <c r="G41">
+        <f>STDEV(G2:G37)</f>
+        <v>0.4127203583624568</v>
+      </c>
+      <c r="H41">
+        <f>STDEV(H2:H37)</f>
+        <v>0.36110087202249719</v>
+      </c>
+      <c r="I41">
+        <f>STDEV(I2:I37)</f>
+        <v>0.34612554271374568</v>
+      </c>
+      <c r="J41">
+        <f>STDEV(J2:J37)</f>
+        <v>0.28901430741213979</v>
+      </c>
+      <c r="K41">
+        <f>STDEV(K2:K37)</f>
+        <v>0.11856423721862172</v>
+      </c>
+      <c r="L41">
+        <f>STDEV(L2:L37)</f>
+        <v>0.14043009019088318</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B37">
-        <f>B36/(SQRT(31))</f>
-        <v>2.6970813570757434E-2</v>
-      </c>
-      <c r="C37">
-        <f t="shared" ref="C37:L37" si="2">C36/(SQRT(31))</f>
-        <v>3.3706454689282114E-2</v>
-      </c>
-      <c r="D37">
-        <f t="shared" si="2"/>
-        <v>2.6570904747784164E-2</v>
-      </c>
-      <c r="E37">
-        <f t="shared" si="2"/>
-        <v>7.2690926666703917E-2</v>
-      </c>
-      <c r="F37">
-        <f t="shared" si="2"/>
-        <v>7.8157780487544265E-2</v>
-      </c>
-      <c r="G37">
-        <f t="shared" si="2"/>
-        <v>7.0882980222838399E-2</v>
-      </c>
-      <c r="H37">
-        <f t="shared" si="2"/>
-        <v>6.2171426456974779E-2</v>
-      </c>
-      <c r="I37">
-        <f t="shared" si="2"/>
-        <v>6.514095533302483E-2</v>
-      </c>
-      <c r="J37">
-        <f t="shared" si="2"/>
-        <v>4.8932512011255522E-2</v>
-      </c>
-      <c r="K37">
-        <f t="shared" si="2"/>
-        <v>1.7561553824995885E-2</v>
-      </c>
-      <c r="L37">
-        <f t="shared" si="2"/>
-        <v>2.562116860053136E-2</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A38" s="1" t="s">
+      <c r="B42">
+        <f>B41/(SQRT(36))</f>
+        <v>2.5681930350220095E-2</v>
+      </c>
+      <c r="C42">
+        <f>C41/(SQRT(36))</f>
+        <v>2.9993404374351398E-2</v>
+      </c>
+      <c r="D42">
+        <f>D41/(SQRT(36))</f>
+        <v>2.4377991939097645E-2</v>
+      </c>
+      <c r="E42">
+        <f>E41/(SQRT(36))</f>
+        <v>6.7972236913423412E-2</v>
+      </c>
+      <c r="F42">
+        <f>F41/(SQRT(36))</f>
+        <v>7.0516531568923721E-2</v>
+      </c>
+      <c r="G42">
+        <f>G41/(SQRT(36))</f>
+        <v>6.8786726393742795E-2</v>
+      </c>
+      <c r="H42">
+        <f>H41/(SQRT(36))</f>
+        <v>6.01834786704162E-2</v>
+      </c>
+      <c r="I42">
+        <f>I41/(SQRT(36))</f>
+        <v>5.7687590452290945E-2</v>
+      </c>
+      <c r="J42">
+        <f>J41/(SQRT(36))</f>
+        <v>4.8169051235356634E-2</v>
+      </c>
+      <c r="K42">
+        <f>K41/(SQRT(36))</f>
+        <v>1.976070620310362E-2</v>
+      </c>
+      <c r="L42">
+        <f>L41/(SQRT(36))</f>
+        <v>2.3405015031813862E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B38">
-        <f>B37*1.96</f>
-        <v>5.2862794598684572E-2</v>
-      </c>
-      <c r="C38">
-        <f t="shared" ref="C38:L38" si="3">C37*1.96</f>
-        <v>6.6064651190992946E-2</v>
-      </c>
-      <c r="D38">
-        <f t="shared" si="3"/>
-        <v>5.2078973305656959E-2</v>
-      </c>
-      <c r="E38">
-        <f t="shared" si="3"/>
-        <v>0.14247421626673967</v>
-      </c>
-      <c r="F38">
-        <f t="shared" si="3"/>
-        <v>0.15318924975558676</v>
-      </c>
-      <c r="G38">
-        <f t="shared" si="3"/>
-        <v>0.13893064123676327</v>
-      </c>
-      <c r="H38">
-        <f t="shared" si="3"/>
-        <v>0.12185599585567057</v>
-      </c>
-      <c r="I38">
-        <f t="shared" si="3"/>
-        <v>0.12767627245272867</v>
-      </c>
-      <c r="J38">
-        <f t="shared" si="3"/>
-        <v>9.5907723542060827E-2</v>
-      </c>
-      <c r="K38">
-        <f t="shared" si="3"/>
-        <v>3.4420645496991933E-2</v>
-      </c>
-      <c r="L38">
-        <f t="shared" si="3"/>
-        <v>5.0217490457041464E-2</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A39" s="1" t="s">
+      <c r="B43">
+        <f>B42*1.96</f>
+        <v>5.0336583486431385E-2</v>
+      </c>
+      <c r="C43">
+        <f>C42*1.96</f>
+        <v>5.8787072573728741E-2</v>
+      </c>
+      <c r="D43">
+        <f>D42*1.96</f>
+        <v>4.7780864200631386E-2</v>
+      </c>
+      <c r="E43">
+        <f>E42*1.96</f>
+        <v>0.13322558435030987</v>
+      </c>
+      <c r="F43">
+        <f>F42*1.96</f>
+        <v>0.13821240187509048</v>
+      </c>
+      <c r="G43">
+        <f>G42*1.96</f>
+        <v>0.13482198373173587</v>
+      </c>
+      <c r="H43">
+        <f>H42*1.96</f>
+        <v>0.11795961819401575</v>
+      </c>
+      <c r="I43">
+        <f>I42*1.96</f>
+        <v>0.11306767728649025</v>
+      </c>
+      <c r="J43">
+        <f>J42*1.96</f>
+        <v>9.4411340421299006E-2</v>
+      </c>
+      <c r="K43">
+        <f>K42*1.96</f>
+        <v>3.8730984158083091E-2</v>
+      </c>
+      <c r="L43">
+        <f>L42*1.96</f>
+        <v>4.5873829462355166E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B39">
-        <f>B35+B38</f>
-        <v>-0.39990503430870339</v>
-      </c>
-      <c r="C39">
-        <f t="shared" ref="C39:L39" si="4">C35+C38</f>
-        <v>-0.32303963680848891</v>
-      </c>
-      <c r="D39">
-        <f t="shared" si="4"/>
-        <v>-0.36885708514777804</v>
-      </c>
-      <c r="E39">
-        <f t="shared" si="4"/>
-        <v>0.3562326791445326</v>
-      </c>
-      <c r="F39">
-        <f t="shared" si="4"/>
-        <v>0.33672134589809716</v>
-      </c>
-      <c r="G39">
-        <f t="shared" si="4"/>
-        <v>0.39854595639588319</v>
-      </c>
-      <c r="H39">
-        <f t="shared" si="4"/>
-        <v>0.23452992655821647</v>
-      </c>
-      <c r="I39">
-        <f t="shared" si="4"/>
-        <v>0.73214442704867411</v>
-      </c>
-      <c r="J39">
-        <f t="shared" si="4"/>
-        <v>0.62951771269804135</v>
-      </c>
-      <c r="K39">
-        <f t="shared" si="4"/>
-        <v>6.4647012232274523E-2</v>
-      </c>
-      <c r="L39">
-        <f t="shared" si="4"/>
-        <v>0.19715887491361545</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A40" s="1" t="s">
+      <c r="B44">
+        <f>B40+B43</f>
+        <v>-0.39121425610841221</v>
+      </c>
+      <c r="C44">
+        <f>C40+C43</f>
+        <v>-0.32844219215752163</v>
+      </c>
+      <c r="D44">
+        <f>D40+D43</f>
+        <v>-0.36660918796241565</v>
+      </c>
+      <c r="E44">
+        <f>E40+E43</f>
+        <v>0.37631594949583524</v>
+      </c>
+      <c r="F44">
+        <f>F40+F43</f>
+        <v>0.34140495482240546</v>
+      </c>
+      <c r="G44">
+        <f>G40+G43</f>
+        <v>0.42439208141431967</v>
+      </c>
+      <c r="H44">
+        <f>H40+H43</f>
+        <v>0.25634593298970748</v>
+      </c>
+      <c r="I44">
+        <f>I40+I43</f>
+        <v>0.73065028239685215</v>
+      </c>
+      <c r="J44">
+        <f>J40+J43</f>
+        <v>0.64718770738003739</v>
+      </c>
+      <c r="K44">
+        <f>K40+K43</f>
+        <v>7.8628796356293565E-2</v>
+      </c>
+      <c r="L44">
+        <f>L40+L43</f>
+        <v>0.19705761234924732</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B40">
-        <f>B35-B38</f>
-        <v>-0.50563062350607257</v>
-      </c>
-      <c r="C40">
-        <f t="shared" ref="C40:L40" si="5">C35-C38</f>
-        <v>-0.45516893919047474</v>
-      </c>
-      <c r="D40">
-        <f t="shared" si="5"/>
-        <v>-0.47301503175909199</v>
-      </c>
-      <c r="E40">
-        <f t="shared" si="5"/>
-        <v>7.1284246611053231E-2</v>
-      </c>
-      <c r="F40">
-        <f t="shared" si="5"/>
-        <v>3.0342846386923639E-2</v>
-      </c>
-      <c r="G40">
-        <f t="shared" si="5"/>
-        <v>0.12068467392235663</v>
-      </c>
-      <c r="H40">
-        <f t="shared" si="5"/>
-        <v>-9.1820651531246827E-3</v>
-      </c>
-      <c r="I40">
-        <f t="shared" si="5"/>
-        <v>0.47679188214321672</v>
-      </c>
-      <c r="J40">
-        <f t="shared" si="5"/>
-        <v>0.43770226561391973</v>
-      </c>
-      <c r="K40">
-        <f t="shared" si="5"/>
-        <v>-4.1942787617093476E-3</v>
-      </c>
-      <c r="L40">
-        <f t="shared" si="5"/>
-        <v>9.6723893999532518E-2</v>
+      <c r="B45">
+        <f>B40-B43</f>
+        <v>-0.49188742308127498</v>
+      </c>
+      <c r="C45">
+        <f>C40-C43</f>
+        <v>-0.44601633730497908</v>
+      </c>
+      <c r="D45">
+        <f>D40-D43</f>
+        <v>-0.46217091636367841</v>
+      </c>
+      <c r="E45">
+        <f>E40-E43</f>
+        <v>0.10986478079521553</v>
+      </c>
+      <c r="F45">
+        <f>F40-F43</f>
+        <v>6.498015107222449E-2</v>
+      </c>
+      <c r="G45">
+        <f>G40-G43</f>
+        <v>0.15474811395084792</v>
+      </c>
+      <c r="H45">
+        <f>H40-H43</f>
+        <v>2.0426696601675967E-2</v>
+      </c>
+      <c r="I45">
+        <f>I40-I43</f>
+        <v>0.50451492782387164</v>
+      </c>
+      <c r="J45">
+        <f>J40-J43</f>
+        <v>0.45836502653743944</v>
+      </c>
+      <c r="K45">
+        <f>K40-K43</f>
+        <v>1.1668280401273823E-3</v>
+      </c>
+      <c r="L45">
+        <f>L40-L43</f>
+        <v>0.105309953424537</v>
       </c>
     </row>
   </sheetData>
